--- a/data/hotels_by_city/Dallas/Dallas_shard_616.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_616.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1487 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r555565829-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>223045</t>
+  </si>
+  <si>
+    <t>555565829</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Suprisingly Nice Place</t>
+  </si>
+  <si>
+    <t>I did not have high expectations as the good reviews I thought were fake.  I actually really liked this place.  The front desk people were nice and helpful.  The room was amazingly clean way beyond what I expected.  The hotel smelled clean or it was the smell of the indoor people, whatever it was, it felt clean.  Breakfast was good although the orange juice was great.  It was further than where I like to stay, but I might stay here again.  It is by the highway so you will hear the traffic.  It might be better to stay away from the traffic so you don't hear the cars.  They offered me a room away, but I always feel better being able to see my car.  The bed and pillows were comfortable also.  Shower had good hot water with so so pressure.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I did not have high expectations as the good reviews I thought were fake.  I actually really liked this place.  The front desk people were nice and helpful.  The room was amazingly clean way beyond what I expected.  The hotel smelled clean or it was the smell of the indoor people, whatever it was, it felt clean.  Breakfast was good although the orange juice was great.  It was further than where I like to stay, but I might stay here again.  It is by the highway so you will hear the traffic.  It might be better to stay away from the traffic so you don't hear the cars.  They offered me a room away, but I always feel better being able to see my car.  The bed and pillows were comfortable also.  Shower had good hot water with so so pressure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r553453514-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>553453514</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Our Van was Stolen from the Parking Lot</t>
+  </si>
+  <si>
+    <t>We've stayed there several times. Yes it's a sketchy area but it's close to where we do business on Harry Hine Blvd. This time we got bit. Our van was stolen from a spot 30 feet from the front door. The Manager said video - which I was not allowed to see - showed people drive up behind it and spend +- 15 minutes fussing to get it started..so this wasn't some Random Tweaker deal.Know that there is a big monitor on the Front Desk which would have shown this and since it was 7:45 PM you'd think they would have noticed. So it was a big kerfuffle for us. The Hotel Owner stepped up for us though. Ha! Just kidding...gave us till noon to get out or be charged another night. This while we had to find a vehicle that could tow our trailer which thankfully had not been stolen - only because I had it separately parked.The rooms are okay...but we'll never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed there several times. Yes it's a sketchy area but it's close to where we do business on Harry Hine Blvd. This time we got bit. Our van was stolen from a spot 30 feet from the front door. The Manager said video - which I was not allowed to see - showed people drive up behind it and spend +- 15 minutes fussing to get it started..so this wasn't some Random Tweaker deal.Know that there is a big monitor on the Front Desk which would have shown this and since it was 7:45 PM you'd think they would have noticed. So it was a big kerfuffle for us. The Hotel Owner stepped up for us though. Ha! Just kidding...gave us till noon to get out or be charged another night. This while we had to find a vehicle that could tow our trailer which thankfully had not been stolen - only because I had it separately parked.The rooms are okay...but we'll never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r551304860-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>551304860</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The neighborhood looks a little sketchy driving in past a gentleman’s club but the property is nice. Our kids especially enjoyed the indoor pool and hot tub. Beds were overly firm but all in all a good stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r531168626-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>531168626</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Basic but good.  Not far from DFW Int. Airport</t>
+  </si>
+  <si>
+    <t>Location:  relatively close to DFW . Nothing Interesting in the area.4 floors.  Big Parking Lot.In the room (427) :  Refrigerator , Microwave , Coffee machine, no safe, small bath,Separate  basin for the coffee machine ץLocal A/C.Indoor swimming pool + jacuzzi.Good and fast service</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r530039255-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>530039255</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Trip was awful</t>
+  </si>
+  <si>
+    <t>Everything was ok to start yet when I checked out I had been in my vehicle less than 5 min when I called hotel because I left my imported necklace from ENGLAND , I simply asked if the housekeeper before they even got to my room could hold my necklace that I left hanging on the tv APPARENTLY THEY STOLE IT I called about six times given the day I left and on onto the weekend all I got was the run around so THEY STOKE MY NECKLACE SAD THEY WILL NEVER GET MY BUSINESS AGAIN THE STAFF AWFUL AND MANAGERS EVEN WORSE WHICH THEY NEVER GOT BACK TO ME SO WILL STICKTO HILTON MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Everything was ok to start yet when I checked out I had been in my vehicle less than 5 min when I called hotel because I left my imported necklace from ENGLAND , I simply asked if the housekeeper before they even got to my room could hold my necklace that I left hanging on the tv APPARENTLY THEY STOLE IT I called about six times given the day I left and on onto the weekend all I got was the run around so THEY STOKE MY NECKLACE SAD THEY WILL NEVER GET MY BUSINESS AGAIN THE STAFF AWFUL AND MANAGERS EVEN WORSE WHICH THEY NEVER GOT BACK TO ME SO WILL STICKTO HILTON More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r505096549-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>505096549</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome break from everyday stress</t>
+  </si>
+  <si>
+    <t>This hotel exceeds uts star rating with friendly staff unbelievably clean room an amazing breakfast beautiful Ambience hotel is just a great place to stay even when being surrounded by some of whom would consider the alternative lifestyle establishments it still maintains its utmost integrity and class</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r485207516-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>485207516</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Parent quick get away!!</t>
+  </si>
+  <si>
+    <t>Room where very clean, bed very soft, pillows very soft, over all experience was great..would stay here again..staff was nice &amp; helpful..the area was industrial but other wise it was good....price was good..</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r464967322-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>464967322</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Unsafe! locks had been tampered with</t>
+  </si>
+  <si>
+    <t>Stayed one night with my sister because it was close to airport. Room 127 which was at the end of the hallway next to the exit door. Upon check in they appeared to have trouble finding a room for us although I had booked online and had a confirmation number. We were specifically told that the exit door is kept locked for security and that if we had any problems call the front desk. Seemed odd at the time. Very noisy with lots of hall traffic all night. At 4:30am someone entered our room and turned the light on, then realizing the room was occupied, she left quickly. No, she didn't turn the light off. We had set the deadbolt and the toggle lock, both did not work. We tried to call the front desk from hotel phone but it did not work. Called with cell phone and was told by Ashley that she thought the room was empty and that she was cleaning rooms (at 4:30!). She asked us to stop by the front desk the next morning for compensation. Needless to say we did not go back to sleep. Upon inspection of the locks, the door mounted portion of the toggle lock has been moved just enough to appear that it latches when it doesn't. This was not a mistake as the original drill holes are clear and clean. Not like it had at one time been pulled...Stayed one night with my sister because it was close to airport. Room 127 which was at the end of the hallway next to the exit door. Upon check in they appeared to have trouble finding a room for us although I had booked online and had a confirmation number. We were specifically told that the exit door is kept locked for security and that if we had any problems call the front desk. Seemed odd at the time. Very noisy with lots of hall traffic all night. At 4:30am someone entered our room and turned the light on, then realizing the room was occupied, she left quickly. No, she didn't turn the light off. We had set the deadbolt and the toggle lock, both did not work. We tried to call the front desk from hotel phone but it did not work. Called with cell phone and was told by Ashley that she thought the room was empty and that she was cleaning rooms (at 4:30!). She asked us to stop by the front desk the next morning for compensation. Needless to say we did not go back to sleep. Upon inspection of the locks, the door mounted portion of the toggle lock has been moved just enough to appear that it latches when it doesn't. This was not a mistake as the original drill holes are clear and clean. Not like it had at one time been pulled from the door. The deadbolt was packed so that it could not be completely locked. At check out, Ashley stated she had been looking for extra pillows but could not give an explanation about the locks and was happy to deduct $20 from my bill. I toId her I would have to speak with the general manager. They took my number but I don't expect to be contacted. I have been unable to reach him but my folio has him listed as the person who checked us in. The hotel was clean and looked nice, but is located nearby a "gentleman's" club. Way too much middle of the night traffic to believe she was cleaning rooms or looking for pillows when she entered our room. I will pursue this further to make sure the management is aware of the problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stayed one night with my sister because it was close to airport. Room 127 which was at the end of the hallway next to the exit door. Upon check in they appeared to have trouble finding a room for us although I had booked online and had a confirmation number. We were specifically told that the exit door is kept locked for security and that if we had any problems call the front desk. Seemed odd at the time. Very noisy with lots of hall traffic all night. At 4:30am someone entered our room and turned the light on, then realizing the room was occupied, she left quickly. No, she didn't turn the light off. We had set the deadbolt and the toggle lock, both did not work. We tried to call the front desk from hotel phone but it did not work. Called with cell phone and was told by Ashley that she thought the room was empty and that she was cleaning rooms (at 4:30!). She asked us to stop by the front desk the next morning for compensation. Needless to say we did not go back to sleep. Upon inspection of the locks, the door mounted portion of the toggle lock has been moved just enough to appear that it latches when it doesn't. This was not a mistake as the original drill holes are clear and clean. Not like it had at one time been pulled...Stayed one night with my sister because it was close to airport. Room 127 which was at the end of the hallway next to the exit door. Upon check in they appeared to have trouble finding a room for us although I had booked online and had a confirmation number. We were specifically told that the exit door is kept locked for security and that if we had any problems call the front desk. Seemed odd at the time. Very noisy with lots of hall traffic all night. At 4:30am someone entered our room and turned the light on, then realizing the room was occupied, she left quickly. No, she didn't turn the light off. We had set the deadbolt and the toggle lock, both did not work. We tried to call the front desk from hotel phone but it did not work. Called with cell phone and was told by Ashley that she thought the room was empty and that she was cleaning rooms (at 4:30!). She asked us to stop by the front desk the next morning for compensation. Needless to say we did not go back to sleep. Upon inspection of the locks, the door mounted portion of the toggle lock has been moved just enough to appear that it latches when it doesn't. This was not a mistake as the original drill holes are clear and clean. Not like it had at one time been pulled from the door. The deadbolt was packed so that it could not be completely locked. At check out, Ashley stated she had been looking for extra pillows but could not give an explanation about the locks and was happy to deduct $20 from my bill. I toId her I would have to speak with the general manager. They took my number but I don't expect to be contacted. I have been unable to reach him but my folio has him listed as the person who checked us in. The hotel was clean and looked nice, but is located nearby a "gentleman's" club. Way too much middle of the night traffic to believe she was cleaning rooms or looking for pillows when she entered our room. I will pursue this further to make sure the management is aware of the problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r460566472-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>460566472</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here based on the recommendation of a local. The hotel was a tremendous value. Location was a little rough but that was the only negative.  The staff was wonderful. My room was large and comfortable.  There are plenty of restaurants nearby. I'd stay there again happily.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r440025986-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>440025986</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Dirty, old, over-priced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I paid $85 a night, $10 more than advertised.   The place is old, badly in need of attention.    From the outside it looks good.    The inside, pretty bad.    The furniture in the suites is sadly lacking.   Looks like it was bought used from a closed down motel.   No drinking glasses in the room.   The ice machines are broke.   I will say the king size bed seems very comfortable.  </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r431663759-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>431663759</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>I think this was a comfort inn that has been rebranded by choice as quality</t>
+  </si>
+  <si>
+    <t>Overall, it was not bad.I stayed using Points.I specifically reserved the jacuzzi room,on the choice privileges site.(it was an available choice,and I'm a distance bicyclist-I was going to the hockey game,I had brought my bike down on the train, and rode it to/from the nearby station).I was initially issued a room other than the one I reserved, but upon presenting the printout of my reservation,the matter was corrected.I was given permission to bring my vintage racing bike into my room.(which briefly confused the night watchman who hadn't been apprised of the matter.)He was most helpful after learning of it,tho.The television had a good variety of channels,some of the rooms furniture was a little too big for the room itself, but that was mostly because the jacuzzi took up extra floor space.The breakfast could have used some non pork meat products, but the premade omelet thingies were acceptable.The jacuzzi controls were a little confusing at first,but eventually figured out.I was asked for a CC for a loyalty room,(not all choice hotels do this, and those that do,are expected by choice to notate it for the customer on the reservation page-no such notation was noted on my reservation.with that said,all staff was helpful.The neighborhood is old school far north dallas,lots of package stores &amp; "gents clubs"-But I had no issues with patrons of either style of establishment.it is what is is.its a conveniently located reasonably secure hotel with indoor corridors near the...Overall, it was not bad.I stayed using Points.I specifically reserved the jacuzzi room,on the choice privileges site.(it was an available choice,and I'm a distance bicyclist-I was going to the hockey game,I had brought my bike down on the train, and rode it to/from the nearby station).I was initially issued a room other than the one I reserved, but upon presenting the printout of my reservation,the matter was corrected.I was given permission to bring my vintage racing bike into my room.(which briefly confused the night watchman who hadn't been apprised of the matter.)He was most helpful after learning of it,tho.The television had a good variety of channels,some of the rooms furniture was a little too big for the room itself, but that was mostly because the jacuzzi took up extra floor space.The breakfast could have used some non pork meat products, but the premade omelet thingies were acceptable.The jacuzzi controls were a little confusing at first,but eventually figured out.I was asked for a CC for a loyalty room,(not all choice hotels do this, and those that do,are expected by choice to notate it for the customer on the reservation page-no such notation was noted on my reservation.with that said,all staff was helpful.The neighborhood is old school far north dallas,lots of package stores &amp; "gents clubs"-But I had no issues with patrons of either style of establishment.it is what is is.its a conveniently located reasonably secure hotel with indoor corridors near the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Overall, it was not bad.I stayed using Points.I specifically reserved the jacuzzi room,on the choice privileges site.(it was an available choice,and I'm a distance bicyclist-I was going to the hockey game,I had brought my bike down on the train, and rode it to/from the nearby station).I was initially issued a room other than the one I reserved, but upon presenting the printout of my reservation,the matter was corrected.I was given permission to bring my vintage racing bike into my room.(which briefly confused the night watchman who hadn't been apprised of the matter.)He was most helpful after learning of it,tho.The television had a good variety of channels,some of the rooms furniture was a little too big for the room itself, but that was mostly because the jacuzzi took up extra floor space.The breakfast could have used some non pork meat products, but the premade omelet thingies were acceptable.The jacuzzi controls were a little confusing at first,but eventually figured out.I was asked for a CC for a loyalty room,(not all choice hotels do this, and those that do,are expected by choice to notate it for the customer on the reservation page-no such notation was noted on my reservation.with that said,all staff was helpful.The neighborhood is old school far north dallas,lots of package stores &amp; "gents clubs"-But I had no issues with patrons of either style of establishment.it is what is is.its a conveniently located reasonably secure hotel with indoor corridors near the...Overall, it was not bad.I stayed using Points.I specifically reserved the jacuzzi room,on the choice privileges site.(it was an available choice,and I'm a distance bicyclist-I was going to the hockey game,I had brought my bike down on the train, and rode it to/from the nearby station).I was initially issued a room other than the one I reserved, but upon presenting the printout of my reservation,the matter was corrected.I was given permission to bring my vintage racing bike into my room.(which briefly confused the night watchman who hadn't been apprised of the matter.)He was most helpful after learning of it,tho.The television had a good variety of channels,some of the rooms furniture was a little too big for the room itself, but that was mostly because the jacuzzi took up extra floor space.The breakfast could have used some non pork meat products, but the premade omelet thingies were acceptable.The jacuzzi controls were a little confusing at first,but eventually figured out.I was asked for a CC for a loyalty room,(not all choice hotels do this, and those that do,are expected by choice to notate it for the customer on the reservation page-no such notation was noted on my reservation.with that said,all staff was helpful.The neighborhood is old school far north dallas,lots of package stores &amp; "gents clubs"-But I had no issues with patrons of either style of establishment.it is what is is.its a conveniently located reasonably secure hotel with indoor corridors near the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r425730300-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>425730300</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Okay but...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for one night on our way through town. The first room we were put in the air conditioner did not work. The other room we ended up in had a lot of road noise. Sounded like we were staying on a race track. The hotel grounds themselves seemed like a business center that was converted to a hotel. I would stay elsewhere on our return to Dallas. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r414035023-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>414035023</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I came into Dallas for the weekend with my husband and we chose to get a jacuzzi suite. It was absolutely amazing, the room was very spacious and clean. We did not hear any noise (we had one of the corner rooms on the 4th floor) and it was such a pleasant stay. My husband and I really enjoyed it and the staff was very sweet and helpful. Despite the location of the hotel, I give it 5 stars because the hotel went above and beyond to make our stay warm and welcoming the entire weekend. It was a great home away from home and it definitely exceeded our expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I came into Dallas for the weekend with my husband and we chose to get a jacuzzi suite. It was absolutely amazing, the room was very spacious and clean. We did not hear any noise (we had one of the corner rooms on the 4th floor) and it was such a pleasant stay. My husband and I really enjoyed it and the staff was very sweet and helpful. Despite the location of the hotel, I give it 5 stars because the hotel went above and beyond to make our stay warm and welcoming the entire weekend. It was a great home away from home and it definitely exceeded our expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r394940166-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>394940166</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Nice stay but the area is not pleasant</t>
+  </si>
+  <si>
+    <t>It was a nice stay and the room was fine. Didn't have any issues with the room. Didn't stick around for the breakfast. Location of the hotel is not the best, but there is nothing the hotel can do about it.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r366977294-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>366977294</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>The room was good sized and clean. Soft pillows. Nice indoor pool and Jacuzzi. The cheese omelettes are like rubber, but the waffles are good. I'm writing more to make the minimum character count for this review.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r353416676-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>353416676</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Friendly service upon check-in and check-out.  Spacious rooms, clean, and very quiet.  Wasn't able to get breakfast since I left before 6am.  Decent location - easy on/off the interstate.  Would stay again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r349359309-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>349359309</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Surprised how large the room was</t>
+  </si>
+  <si>
+    <t>This is the first time I stayed at this property and I was very happy with it. Even though it is next to the Interstate, they is no frontage road in front of it and you have to zigzag on the back roads to get to it. The rooms are large with a sitting area with couch, desk and TV, kitchenette with sink, microwave and fridge, bathroom  and bedroom with another TV. The TV remotes did not work in my first room, so the nice front desk girl promptly switched me to another room where everything was good.  You could hear noise from the highway in the rooms, but it was a gentle hum and not loud enough to keep me awake. Breakfast was more than adequate with a good standard selection of hot and cold items; cereals, waffle iron, pastries, mini-omelettes and bacon (or sausage), a couple of juices, fresh fruit and yogurt. Had to check out a day early, and there was no problem with that. The most annoying thing was the cold drink vending machine on the 2nd floor took my money and did not vend any cold drinks. The machine on the 4th floor worked properly.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the first time I stayed at this property and I was very happy with it. Even though it is next to the Interstate, they is no frontage road in front of it and you have to zigzag on the back roads to get to it. The rooms are large with a sitting area with couch, desk and TV, kitchenette with sink, microwave and fridge, bathroom  and bedroom with another TV. The TV remotes did not work in my first room, so the nice front desk girl promptly switched me to another room where everything was good.  You could hear noise from the highway in the rooms, but it was a gentle hum and not loud enough to keep me awake. Breakfast was more than adequate with a good standard selection of hot and cold items; cereals, waffle iron, pastries, mini-omelettes and bacon (or sausage), a couple of juices, fresh fruit and yogurt. Had to check out a day early, and there was no problem with that. The most annoying thing was the cold drink vending machine on the 2nd floor took my money and did not vend any cold drinks. The machine on the 4th floor worked properly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r348732934-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>348732934</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Amazing place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just love this place. The location is in a serene place,  not too far from the city and the view is amazing. The hotel is clean,  has WiFi facility and a gym as well. Would love to visit and stay here again. </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r313974230-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>313974230</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Cockroaches &amp; Unfriendly Receptionist</t>
+  </si>
+  <si>
+    <t>It looks like a lovely hotel, modern and clean looking. However, we were greeted by an unfriendly girl on reception (evening of Friday, 25th September) with a terrible attitude and there were cockroaches in our room. When I asked the receptionist to call us a taxi, she said she'd give us the number. I asked if she could actually call it herself, she looked like I'd asked her for her first born child. She slowly called a taxi and said it would be 10 minutes. We waited outside for about 25 minutes. When we went back in and said it hadn't arrived, she just slowly shrugged her shoulders with a 'I could not give a steaming sh1t' look. So, we just walked 35 minutes to our restaurant. There was no manager to tell and no point complaining to the receptionist.Next morning on checkout, a different receptionist was very friendly. Aestetically, this is a nice looking hotel. Rooms decorated well and linned clean. They need to sort out the cockroach problem and that receptionist needs some training. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>It looks like a lovely hotel, modern and clean looking. However, we were greeted by an unfriendly girl on reception (evening of Friday, 25th September) with a terrible attitude and there were cockroaches in our room. When I asked the receptionist to call us a taxi, she said she'd give us the number. I asked if she could actually call it herself, she looked like I'd asked her for her first born child. She slowly called a taxi and said it would be 10 minutes. We waited outside for about 25 minutes. When we went back in and said it hadn't arrived, she just slowly shrugged her shoulders with a 'I could not give a steaming sh1t' look. So, we just walked 35 minutes to our restaurant. There was no manager to tell and no point complaining to the receptionist.Next morning on checkout, a different receptionist was very friendly. Aestetically, this is a nice looking hotel. Rooms decorated well and linned clean. They need to sort out the cockroach problem and that receptionist needs some training. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r310695168-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>310695168</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Religous conference</t>
+  </si>
+  <si>
+    <t>I stayed in Dallas at this hotel for 5 days.  My first time in Dallas, TX and the staff was very accomodating and helpful.  The conference was held in downtown dallas and the hotel manager agreed to see that me and my group were taken to our event and picked back up in the afternoon since we were niot within walking distance.  They also made sure we had everything we needed at the hotel within reason.  They served a hot breakfast every morning which was very tasty and at no charge.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r302308104-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>302308104</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>A "My Cousin Vinny" motel - I can NOT recommend this place!</t>
+  </si>
+  <si>
+    <t>Upon my arrival at 4:00 PM - they had no clean rooms available and I had to wait an hour for a room. While waiting at the front desk I overheard the manager say that he was ready for a drink and he appeared far more eager to leave - then to assist his staff and the people waiting for rooms.The nightmare began around 9:00 in the evening when the establishment that is immediately to the south of this "motel" began it loud music and and its raucous patrons were yelling and drinking in their parking lot which is right below the window line of this dump - well this noise and behavior went onto well past 3:00 AM and when I approached the young man at the front desk at midnight about this - his attitude was poor and his comment was "Oh yeah, and it gets really loud on the weekends" (it was a Thursday night/Friday morning)  He never offered a solution, an apology nor a move to another room?During my check-out - the young lady behind the desk asked me how my stay was - and I told her it was terrible - at least she apologized and acknowledged that the noise is a problem and has been a problem. My recommendation is to avoid this place at all costs!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon my arrival at 4:00 PM - they had no clean rooms available and I had to wait an hour for a room. While waiting at the front desk I overheard the manager say that he was ready for a drink and he appeared far more eager to leave - then to assist his staff and the people waiting for rooms.The nightmare began around 9:00 in the evening when the establishment that is immediately to the south of this "motel" began it loud music and and its raucous patrons were yelling and drinking in their parking lot which is right below the window line of this dump - well this noise and behavior went onto well past 3:00 AM and when I approached the young man at the front desk at midnight about this - his attitude was poor and his comment was "Oh yeah, and it gets really loud on the weekends" (it was a Thursday night/Friday morning)  He never offered a solution, an apology nor a move to another room?During my check-out - the young lady behind the desk asked me how my stay was - and I told her it was terrible - at least she apologized and acknowledged that the noise is a problem and has been a problem. My recommendation is to avoid this place at all costs!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r295867960-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>295867960</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Go elsewhere</t>
+  </si>
+  <si>
+    <t>As soon as I walked into the lobby at 3 pm I was under the assumption that the two workers at the desk wished they were somewhere else and when I did get responded to it was very impersonal and sounded rehearsed. The room was no better as the dreaded Time Warner Cable DTA they had in the room made every channel worth watching pixilated and intermittent, the same goes for the wifi; that had me switching connections nearly every 30 minutes or would flat out be non-existant half the time I needed it. Rest assured, I'm not holding out hope for a pleasant breakfast or a discount because of my disappointment. On top of all that, there is an awful vibration through the whole building that makes sleep very difficult. MoreShow less</t>
+  </si>
+  <si>
+    <t>As soon as I walked into the lobby at 3 pm I was under the assumption that the two workers at the desk wished they were somewhere else and when I did get responded to it was very impersonal and sounded rehearsed. The room was no better as the dreaded Time Warner Cable DTA they had in the room made every channel worth watching pixilated and intermittent, the same goes for the wifi; that had me switching connections nearly every 30 minutes or would flat out be non-existant half the time I needed it. Rest assured, I'm not holding out hope for a pleasant breakfast or a discount because of my disappointment. On top of all that, there is an awful vibration through the whole building that makes sleep very difficult. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r293517778-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>293517778</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Good for overnight stay</t>
+  </si>
+  <si>
+    <t>Located near I-35, free parking, free breakfast and free internet. Gas station and Denny's is within 500 meter which is good for end of long drive.Hotel rate is reasonable. Rooms are good for overnight sleep. Front desk staff was very helpful.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r277219015-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>277219015</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Great service but....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a GREAT stay here! Breakfast was hot and good. Beds were very comfortable. Workers were very friendly. This would get five stars but when we were walking out to leave we saw a HUGE cockroach crawling on the wall and completely grossed me. BUT if this very clean and nice hotel has them then all the hotel around do. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r253258968-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>253258968</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>No sleep</t>
+  </si>
+  <si>
+    <t>Most of the time you can't go wrong with a Choice Hotel. This place is the exception to that rule. As soon as you see the location of the motel you know you are in trouble. It is right off the interstate, so you  here trucks and sirens all night. If you stay on Thurs - Sat the club beside the motel is going strong till 1-3AM.  Forget getting to sleep during this time.  After the club closes expect people running around the motel for another hour or two. The bottom two floors reek of chlorine. They say they have a breakfast, but all they really have is a room where breakfast is supposed to be served.  Out of the 4 nights I spent here the waffle mix and eggs were available one day.  To say the staff is less than responsive is putting it to positive. I asked to speak to a manger twice. Was told they would call the room, I am still waiting for that call. The room was clean, and bedding comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Most of the time you can't go wrong with a Choice Hotel. This place is the exception to that rule. As soon as you see the location of the motel you know you are in trouble. It is right off the interstate, so you  here trucks and sirens all night. If you stay on Thurs - Sat the club beside the motel is going strong till 1-3AM.  Forget getting to sleep during this time.  After the club closes expect people running around the motel for another hour or two. The bottom two floors reek of chlorine. They say they have a breakfast, but all they really have is a room where breakfast is supposed to be served.  Out of the 4 nights I spent here the waffle mix and eggs were available one day.  To say the staff is less than responsive is putting it to positive. I asked to speak to a manger twice. Was told they would call the room, I am still waiting for that call. The room was clean, and bedding comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r238429790-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>238429790</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Hold off on staying here, they are currently remodeling.</t>
+  </si>
+  <si>
+    <t>It is 5:40 am, it is still dark outside and there are no outside lights on...not even under the canopy! It might have something to do with the remodel but the perimeter lighting should still be on.   The room doors are very heavy, so if you are older or very small in stature, like I am, you will have to use all your might to open them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r236562769-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>236562769</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Convenient Location but don't stay here during their renovations</t>
+  </si>
+  <si>
+    <t>Let's start with the positives...
+King suite was very spacious.  It had a separate living room and bedroom.
+Fridge and microwave were available
+Bed, pillow, sheets, and comforter were comfortable and clean
+Breakfast is typical Comfort Inn stuff like scrambled eggs, sausage, waffle. 
+Maintenance came very quickly to address the TV and WIFI connectivity issues
+Staff were generally friendly.
+Negatives:
+TV cable probably is shared by too many rooms so the picture quality is horrible
+TV probably dates back to the 80s...tube TV...really?
+Room 210 has a strong smell of wood, paint, and mold.  Terrible!
+All the doors slam shuts so do expect to the awaken by doors slamming early in the morning
+Gym and pool were both under renovation so none of those advertised facilities were available
+Most other Comfort Inn offers 2 flavors of waffles but this place has only original flavor
+Where's the honey?  Again, most other Comfort Inn have packaged honey...not this place
+Internet is slow to crawling at times but most of the time it's OK speed. 
+Price was high considering that the workout and pool facilities were not available
+The place feels very dated even with some recent updating.
+All in all, I would not recommend this hotel during their renovations.  And even after their renovations, I would have some reservations because it doesn't seem like they are investing much into updating the important stuff like rooms and amenities.  And like others have said,...Let's start with the positives...King suite was very spacious.  It had a separate living room and bedroom.Fridge and microwave were availableBed, pillow, sheets, and comforter were comfortable and cleanBreakfast is typical Comfort Inn stuff like scrambled eggs, sausage, waffle. Maintenance came very quickly to address the TV and WIFI connectivity issuesStaff were generally friendly.Negatives:TV cable probably is shared by too many rooms so the picture quality is horribleTV probably dates back to the 80s...tube TV...really?Room 210 has a strong smell of wood, paint, and mold.  Terrible!All the doors slam shuts so do expect to the awaken by doors slamming early in the morningGym and pool were both under renovation so none of those advertised facilities were availableMost other Comfort Inn offers 2 flavors of waffles but this place has only original flavorWhere's the honey?  Again, most other Comfort Inn have packaged honey...not this placeInternet is slow to crawling at times but most of the time it's OK speed. Price was high considering that the workout and pool facilities were not availableThe place feels very dated even with some recent updating.All in all, I would not recommend this hotel during their renovations.  And even after their renovations, I would have some reservations because it doesn't seem like they are investing much into updating the important stuff like rooms and amenities.  And like others have said, it would be nice to notify people of your renovations so people can know what to expect.  I'm not happy that I was not able to workout that night.Tip:   I plugged in my WIFI router to the wall via CAT 5 and that was much much quicker than the hotel routerMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Let's start with the positives...
+King suite was very spacious.  It had a separate living room and bedroom.
+Fridge and microwave were available
+Bed, pillow, sheets, and comforter were comfortable and clean
+Breakfast is typical Comfort Inn stuff like scrambled eggs, sausage, waffle. 
+Maintenance came very quickly to address the TV and WIFI connectivity issues
+Staff were generally friendly.
+Negatives:
+TV cable probably is shared by too many rooms so the picture quality is horrible
+TV probably dates back to the 80s...tube TV...really?
+Room 210 has a strong smell of wood, paint, and mold.  Terrible!
+All the doors slam shuts so do expect to the awaken by doors slamming early in the morning
+Gym and pool were both under renovation so none of those advertised facilities were available
+Most other Comfort Inn offers 2 flavors of waffles but this place has only original flavor
+Where's the honey?  Again, most other Comfort Inn have packaged honey...not this place
+Internet is slow to crawling at times but most of the time it's OK speed. 
+Price was high considering that the workout and pool facilities were not available
+The place feels very dated even with some recent updating.
+All in all, I would not recommend this hotel during their renovations.  And even after their renovations, I would have some reservations because it doesn't seem like they are investing much into updating the important stuff like rooms and amenities.  And like others have said,...Let's start with the positives...King suite was very spacious.  It had a separate living room and bedroom.Fridge and microwave were availableBed, pillow, sheets, and comforter were comfortable and cleanBreakfast is typical Comfort Inn stuff like scrambled eggs, sausage, waffle. Maintenance came very quickly to address the TV and WIFI connectivity issuesStaff were generally friendly.Negatives:TV cable probably is shared by too many rooms so the picture quality is horribleTV probably dates back to the 80s...tube TV...really?Room 210 has a strong smell of wood, paint, and mold.  Terrible!All the doors slam shuts so do expect to the awaken by doors slamming early in the morningGym and pool were both under renovation so none of those advertised facilities were availableMost other Comfort Inn offers 2 flavors of waffles but this place has only original flavorWhere's the honey?  Again, most other Comfort Inn have packaged honey...not this placeInternet is slow to crawling at times but most of the time it's OK speed. Price was high considering that the workout and pool facilities were not availableThe place feels very dated even with some recent updating.All in all, I would not recommend this hotel during their renovations.  And even after their renovations, I would have some reservations because it doesn't seem like they are investing much into updating the important stuff like rooms and amenities.  And like others have said, it would be nice to notify people of your renovations so people can know what to expect.  I'm not happy that I was not able to workout that night.Tip:   I plugged in my WIFI router to the wall via CAT 5 and that was much much quicker than the hotel routerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r219841832-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>219841832</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>We had a very plesant experience  at this hotel. From the beginning the front desk attendant was courteous and attentive. The room was clean but a bit dated. Overall for the price and location its a bargain.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r216842805-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>216842805</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We were disappointed when we checked in because we had reserved the jacuzzi suite and it was not available. I am glad that this property is being updated but it would have been easy to let me know the room I reserved was being remodeled. The pool and hot tub were also being remodeled. The staff was friendly and helpful but if we would have known we probably would have stayed in the La Quinta up the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike O, Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>We were disappointed when we checked in because we had reserved the jacuzzi suite and it was not available. I am glad that this property is being updated but it would have been easy to let me know the room I reserved was being remodeled. The pool and hot tub were also being remodeled. The staff was friendly and helpful but if we would have known we probably would have stayed in the La Quinta up the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r215217630-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>215217630</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Not what we viewed on their website</t>
+  </si>
+  <si>
+    <t>The photos from the website presented differently from what we got. This is clearly an older hotel, the rooms were in need of update. The tile in the elevator were in need of repair and replacement.  The bathroom floor tiles were unclean.  The swimming pool and hot tub was closed due to repair.  I was aware of it however it would be best to put that clearly on their website.  The beds were comfortable, clean and their were plenty of towels.  The bathroom (toilet, tub) were in good repair.  The bathroom faucet was leaking in room 305.The breakfast consisted of scrambled eggs, bacon, fruit, variety of breads and pastry with the usual cereals.  This was satisfactory.  When we arrived, the front desk clerk wasn't very helpful in providing us with recommendations for dinner nearby.  When asked for change (break a 10 dollar bill) for their vending machine, the female front desk clerk gave my teenaged child a tough time about it.  I'm sure this would be okay as an overnighter however I did feel that their website was deceptive to some degree.MoreShow less</t>
+  </si>
+  <si>
+    <t>The photos from the website presented differently from what we got. This is clearly an older hotel, the rooms were in need of update. The tile in the elevator were in need of repair and replacement.  The bathroom floor tiles were unclean.  The swimming pool and hot tub was closed due to repair.  I was aware of it however it would be best to put that clearly on their website.  The beds were comfortable, clean and their were plenty of towels.  The bathroom (toilet, tub) were in good repair.  The bathroom faucet was leaking in room 305.The breakfast consisted of scrambled eggs, bacon, fruit, variety of breads and pastry with the usual cereals.  This was satisfactory.  When we arrived, the front desk clerk wasn't very helpful in providing us with recommendations for dinner nearby.  When asked for change (break a 10 dollar bill) for their vending machine, the female front desk clerk gave my teenaged child a tough time about it.  I'm sure this would be okay as an overnighter however I did feel that their website was deceptive to some degree.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r203536456-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>203536456</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>4 week stay mon-fri</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful. This is an older Hotel and has been refurbished but not bad at all for the price. There are numerous men's clubs in the area, and didn't see or hear any activity that may have filtered from having the "clubs" near by. There is an very clean indoor swimming pool, and there are several restaurants in the vicinity.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Dutt P, Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful. This is an older Hotel and has been refurbished but not bad at all for the price. There are numerous men's clubs in the area, and didn't see or hear any activity that may have filtered from having the "clubs" near by. There is an very clean indoor swimming pool, and there are several restaurants in the vicinity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r198939379-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>198939379</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Fair for the price</t>
+  </si>
+  <si>
+    <t>It's clear this is an old hotel trying to be refurbished.  The staff works hard to compensate, but the aged hotel, the location (a night club/gentlemen's club nearby), etc. makes this questionable for families. It is also located in the middle of tons of road construction.  But it is a good value for the price.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r198444858-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>198444858</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>When I arrived, they had me a room next to the elevator, so I asked to be moved, because I hate listening the elevator all night long. So they moved me to another room, which the smell of fresh paint just about overwhelmed me, plus the smoke detector was chirping. So again they moved me to another room. This room the bath faucet would not shut off completely. The motel is right next to a Night Club, the music coming from the club kept me up all night. Around 4 am, after everyone left the night club, I was just about to fall asleep, when the people next door arrived in their room and I had to listen their conversion. By this point, I just decided  to pack up and drive home. On my way out to drop off my keys, I was going speak to the person at the front desk, but she was asleep. I am so glad someone at the motel gets to sleep. With out saying, I wont be back at the motel, I advise you not to either.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I arrived, they had me a room next to the elevator, so I asked to be moved, because I hate listening the elevator all night long. So they moved me to another room, which the smell of fresh paint just about overwhelmed me, plus the smoke detector was chirping. So again they moved me to another room. This room the bath faucet would not shut off completely. The motel is right next to a Night Club, the music coming from the club kept me up all night. Around 4 am, after everyone left the night club, I was just about to fall asleep, when the people next door arrived in their room and I had to listen their conversion. By this point, I just decided  to pack up and drive home. On my way out to drop off my keys, I was going speak to the person at the front desk, but she was asleep. I am so glad someone at the motel gets to sleep. With out saying, I wont be back at the motel, I advise you not to either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r194283514-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>194283514</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noisy </t>
+  </si>
+  <si>
+    <t>We had made reservations through choice thinking we had guaranteed reservations. At 830pm we called to make sure letting them know we were still in transit to find out they had given our room away but would give us a different one. With Wyndham we have never experienced that. Thankful they still ha a room since they said their full. Yet we arrive and "somehow" they have our room for us. However the building next to us and parking lot had a party going the entire night to wee hours of the morning. Music loud voices  and freeway traffic. We were on the Fourth floor backside of building.  Though my husband with cold medicine slept through it I didn't.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>We had made reservations through choice thinking we had guaranteed reservations. At 830pm we called to make sure letting them know we were still in transit to find out they had given our room away but would give us a different one. With Wyndham we have never experienced that. Thankful they still ha a room since they said their full. Yet we arrive and "somehow" they have our room for us. However the building next to us and parking lot had a party going the entire night to wee hours of the morning. Music loud voices  and freeway traffic. We were on the Fourth floor backside of building.  Though my husband with cold medicine slept through it I didn't.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r191486832-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>191486832</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>What a Mistake!</t>
+  </si>
+  <si>
+    <t>I should have known, after passing the Gentlemen's Club nearby, that this hotel would be nothing but trashy.  When I walked through the automatic sliding glass doors with my luggage, they actually closed on me.  Then  my sinuses were assaulted by the pungent chlorine smell which burned my nostrils.  After having to wait 15 - 20 minutes to check in, the elevator wait was no better.  I was placed in a room next to the hall being remodeled, a scant ten paces away.  Not only is the hotel outdated and shabby, so are the rooms.  There were holes and cigarette burns on the furniture and bathroom vanity, holes in the drapes, the sink and tub did not drain properly and backed up, the carpet was ragged and the televisions were circa 1980.  The air smelled of musty cigarettes and stale beer.  I was awakened to the sound of hammers, drills and saws which competed with the obnoxiously loud interstate noise outside my window.  I would have been better off at the Bates Motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>I should have known, after passing the Gentlemen's Club nearby, that this hotel would be nothing but trashy.  When I walked through the automatic sliding glass doors with my luggage, they actually closed on me.  Then  my sinuses were assaulted by the pungent chlorine smell which burned my nostrils.  After having to wait 15 - 20 minutes to check in, the elevator wait was no better.  I was placed in a room next to the hall being remodeled, a scant ten paces away.  Not only is the hotel outdated and shabby, so are the rooms.  There were holes and cigarette burns on the furniture and bathroom vanity, holes in the drapes, the sink and tub did not drain properly and backed up, the carpet was ragged and the televisions were circa 1980.  The air smelled of musty cigarettes and stale beer.  I was awakened to the sound of hammers, drills and saws which competed with the obnoxiously loud interstate noise outside my window.  I would have been better off at the Bates Motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r191483641-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>191483641</t>
+  </si>
+  <si>
+    <t>Bang for the buck</t>
+  </si>
+  <si>
+    <t>This is a very good value. It is nicely appointed with a friendly and responsive  staff. It is clean and contains a whirlpool, an indoor swimming pool and workout center. All are handicap accessible.  The breakfast is excellent with bacon/sausage, biscuits and sausage gravy, eggs/omelets, waffles, juice, cereal, coffee, bread, bagels, Danish, yoghurt, and fresh fruit.  There are some minor instances of amateur maintenance such as discolored tiles in the elevator and masking tape on the heater/AC, but nothing that is intolerable. The bathroom is clean with an excellent shower head and bath. There is free Wi-Fi.  Parking is free, secure, well-lit and there is a low-profile security officer on duty at night as well as video surveillance. Excellent freeway access to 35E to go downtown Dallas in about 15-20 minutes. There are several restaurants or fast food places such as Denny's and Jack in the Box and others within walking distance. The  walls are not soundproof, but average. The TVs are older, but operational. The stairway carpet from the lobby to 2nd floor needs shampooing. A few negatives are out of control of the management such as: the location is next to a car lot on the north and the freeway on the west. Not much of a view...who cares? Several nightclubs are very close, but  none of this really affected me once inside. I stayed there for 5 days and was very satisfied. To get the best price,...This is a very good value. It is nicely appointed with a friendly and responsive  staff. It is clean and contains a whirlpool, an indoor swimming pool and workout center. All are handicap accessible.  The breakfast is excellent with bacon/sausage, biscuits and sausage gravy, eggs/omelets, waffles, juice, cereal, coffee, bread, bagels, Danish, yoghurt, and fresh fruit.  There are some minor instances of amateur maintenance such as discolored tiles in the elevator and masking tape on the heater/AC, but nothing that is intolerable. The bathroom is clean with an excellent shower head and bath. There is free Wi-Fi.  Parking is free, secure, well-lit and there is a low-profile security officer on duty at night as well as video surveillance. Excellent freeway access to 35E to go downtown Dallas in about 15-20 minutes. There are several restaurants or fast food places such as Denny's and Jack in the Box and others within walking distance. The  walls are not soundproof, but average. The TVs are older, but operational. The stairway carpet from the lobby to 2nd floor needs shampooing. A few negatives are out of control of the management such as: the location is next to a car lot on the north and the freeway on the west. Not much of a view...who cares? Several nightclubs are very close, but  none of this really affected me once inside. I stayed there for 5 days and was very satisfied. To get the best price, book via the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very good value. It is nicely appointed with a friendly and responsive  staff. It is clean and contains a whirlpool, an indoor swimming pool and workout center. All are handicap accessible.  The breakfast is excellent with bacon/sausage, biscuits and sausage gravy, eggs/omelets, waffles, juice, cereal, coffee, bread, bagels, Danish, yoghurt, and fresh fruit.  There are some minor instances of amateur maintenance such as discolored tiles in the elevator and masking tape on the heater/AC, but nothing that is intolerable. The bathroom is clean with an excellent shower head and bath. There is free Wi-Fi.  Parking is free, secure, well-lit and there is a low-profile security officer on duty at night as well as video surveillance. Excellent freeway access to 35E to go downtown Dallas in about 15-20 minutes. There are several restaurants or fast food places such as Denny's and Jack in the Box and others within walking distance. The  walls are not soundproof, but average. The TVs are older, but operational. The stairway carpet from the lobby to 2nd floor needs shampooing. A few negatives are out of control of the management such as: the location is next to a car lot on the north and the freeway on the west. Not much of a view...who cares? Several nightclubs are very close, but  none of this really affected me once inside. I stayed there for 5 days and was very satisfied. To get the best price,...This is a very good value. It is nicely appointed with a friendly and responsive  staff. It is clean and contains a whirlpool, an indoor swimming pool and workout center. All are handicap accessible.  The breakfast is excellent with bacon/sausage, biscuits and sausage gravy, eggs/omelets, waffles, juice, cereal, coffee, bread, bagels, Danish, yoghurt, and fresh fruit.  There are some minor instances of amateur maintenance such as discolored tiles in the elevator and masking tape on the heater/AC, but nothing that is intolerable. The bathroom is clean with an excellent shower head and bath. There is free Wi-Fi.  Parking is free, secure, well-lit and there is a low-profile security officer on duty at night as well as video surveillance. Excellent freeway access to 35E to go downtown Dallas in about 15-20 minutes. There are several restaurants or fast food places such as Denny's and Jack in the Box and others within walking distance. The  walls are not soundproof, but average. The TVs are older, but operational. The stairway carpet from the lobby to 2nd floor needs shampooing. A few negatives are out of control of the management such as: the location is next to a car lot on the north and the freeway on the west. Not much of a view...who cares? Several nightclubs are very close, but  none of this really affected me once inside. I stayed there for 5 days and was very satisfied. To get the best price, book via the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r188326751-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>188326751</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Nice Amenities</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful. The room was spacious and clean.  The bed was too firm for our tastes, but the rest of the room was great.  The hot breakfast in the morning was nice and there were a lot of options including Texas-shaped belgian waffles. We were close to everything in the Dallas-Fort Worth area.  It's right off the interstate, too.  Google maps directions will lead you astray if you are coming from the West, but from the East they seemed to work fine.  Overall it was a nice overnight stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded December 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2013</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful. The room was spacious and clean.  The bed was too firm for our tastes, but the rest of the room was great.  The hot breakfast in the morning was nice and there were a lot of options including Texas-shaped belgian waffles. We were close to everything in the Dallas-Fort Worth area.  It's right off the interstate, too.  Google maps directions will lead you astray if you are coming from the West, but from the East they seemed to work fine.  Overall it was a nice overnight stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r188286619-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>188286619</t>
+  </si>
+  <si>
+    <t>Average Comfort Inn</t>
+  </si>
+  <si>
+    <t>Average Comfort Inn.  Good Value for the Price.  I stayed here for four nights while working in the Dallas area.  Rate was around $80.00 per night.  The staff was friendly.  On the first night (Saturday) there was a club or something next door that was playing extremely loud music that you could hear inside the rooms.  This made for a long night.The hotel lobby was clean and comfortable.  The rooms were a bit dated and had average bedding.Breakfast in the morning was above average, and was open and ready before the posted hours.  They did a good job on the warm food side making sure it was fresh.And as previously mentioned - unlimited free cookies all day and night !MoreShow less</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded December 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2013</t>
+  </si>
+  <si>
+    <t>Average Comfort Inn.  Good Value for the Price.  I stayed here for four nights while working in the Dallas area.  Rate was around $80.00 per night.  The staff was friendly.  On the first night (Saturday) there was a club or something next door that was playing extremely loud music that you could hear inside the rooms.  This made for a long night.The hotel lobby was clean and comfortable.  The rooms were a bit dated and had average bedding.Breakfast in the morning was above average, and was open and ready before the posted hours.  They did a good job on the warm food side making sure it was fresh.And as previously mentioned - unlimited free cookies all day and night !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r187456083-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>187456083</t>
+  </si>
+  <si>
+    <t>12/12/2013</t>
+  </si>
+  <si>
+    <t>Going to the AAC?  Stay here...</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Inn off I-35 off Walnut Hill Dec 9-11.  Took in the Blackhawks/Stars game and stayed here because of it's proximity to DART.  The Walnut Hill/Denton station was a simple mile or so trip from the hotel.  Left out of the hotel, right on Walnut Hill and you're there in no time.  I stayed in a king bed suite, nice bed, couch, fridge and microwave.  All nice.  TV was ok, but a flat screen HDTV would have been better.  WiFi worked, as did the ice machine.  Front desk ladies were very pleasant and helpful.  Got a good deal on the room through the Choice International Hotels website.  All in all, exactly what I had hoped for.  A good room at a fair price close to the DART station.  I recommend the hotel, they have an indoor pool and hot tub and a hot breakfast as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Inn off I-35 off Walnut Hill Dec 9-11.  Took in the Blackhawks/Stars game and stayed here because of it's proximity to DART.  The Walnut Hill/Denton station was a simple mile or so trip from the hotel.  Left out of the hotel, right on Walnut Hill and you're there in no time.  I stayed in a king bed suite, nice bed, couch, fridge and microwave.  All nice.  TV was ok, but a flat screen HDTV would have been better.  WiFi worked, as did the ice machine.  Front desk ladies were very pleasant and helpful.  Got a good deal on the room through the Choice International Hotels website.  All in all, exactly what I had hoped for.  A good room at a fair price close to the DART station.  I recommend the hotel, they have an indoor pool and hot tub and a hot breakfast as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r185308096-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>185308096</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>I stayed there nov 18-20 the inside and outside were very cleanThe area was quiet even though there is construction on the interstateWas easily accessibleWill def stay there again as I'm in dalls several times a month MoreShow less</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>I stayed there nov 18-20 the inside and outside were very cleanThe area was quiet even though there is construction on the interstateWas easily accessibleWill def stay there again as I'm in dalls several times a month More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r184576898-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>184576898</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Best Choice Hotel on our Trip So Far</t>
+  </si>
+  <si>
+    <t>This moderately priced hotel has the feel of a much more expensive hotel.  It is super clean, has a unique decor, and the breakfast included bacon and sausage and most important to me, REAL coffee (not the watered-down version at so many hotels recently).  The staff was friendly and helpful.  The only down side is that there aren't many restaurants near the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>This moderately priced hotel has the feel of a much more expensive hotel.  It is super clean, has a unique decor, and the breakfast included bacon and sausage and most important to me, REAL coffee (not the watered-down version at so many hotels recently).  The staff was friendly and helpful.  The only down side is that there aren't many restaurants near the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r182001407-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>182001407</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Everyone friendly</t>
+  </si>
+  <si>
+    <t>I stay here often for work. I have tried many hotels around the area and most of the hotels have poor internet service.This hotel has excellent wireless internet. The rooms are always very clean.The hotel has good strong hot water in the restrooms. Breakfast is always good. Usually Tuesday through Thursday evening's they have beer complimentary beer, wine, and snack foods. I will continue to stay here when I come to Dallas. I almost forgot to mention, the rates are very good at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2013</t>
+  </si>
+  <si>
+    <t>I stay here often for work. I have tried many hotels around the area and most of the hotels have poor internet service.This hotel has excellent wireless internet. The rooms are always very clean.The hotel has good strong hot water in the restrooms. Breakfast is always good. Usually Tuesday through Thursday evening's they have beer complimentary beer, wine, and snack foods. I will continue to stay here when I come to Dallas. I almost forgot to mention, the rates are very good at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r177074231-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>177074231</t>
+  </si>
+  <si>
+    <t>09/13/2013</t>
+  </si>
+  <si>
+    <t>Need update.</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Comfort Suites, but the experience was not so good. The sheets had holes.  The room's are outdated, the lobby had a basket because the roof was dripping.  We just stayed one night.  Definitely based on this experience we won't stay again at  Comfort Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Dutt P, Front Office Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded October 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2013</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Comfort Suites, but the experience was not so good. The sheets had holes.  The room's are outdated, the lobby had a basket because the roof was dripping.  We just stayed one night.  Definitely based on this experience we won't stay again at  Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r174693865-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>174693865</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Everything needs an upgrade!!</t>
+  </si>
+  <si>
+    <t>I've always been a fan of comfort suites but this location was terrible. Everything is old and needs replacing. It's clean but old. The walls are paper thin so I could hear the guy snoring in the room next to me and u could hear little kids running up and down the hallway on the floor above me. Needless to say, my two night reservation turned into a one night stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r169171410-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>169171410</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Overall Decent</t>
+  </si>
+  <si>
+    <t>The staff was great, and the hotel was clean and neat. The surrounding properties are what hurt this place though, run down buildings everywhere but the neighborhood was quiet. The pool was refreshing however there was no air circulating in the pool room so it felt as if you were in one giant sauna. Breakfast was as expected for the price we paid, but I was full and happy when I left! If you plan on going to any event at the Cowboys Stadium, or The Rangers Ballpark from this location give yourself a good 1.5 - 2 hour travel time, as traffic and construction are outrageous. Now that I'm familiar with the property I will come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Dutt P, Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>The staff was great, and the hotel was clean and neat. The surrounding properties are what hurt this place though, run down buildings everywhere but the neighborhood was quiet. The pool was refreshing however there was no air circulating in the pool room so it felt as if you were in one giant sauna. Breakfast was as expected for the price we paid, but I was full and happy when I left! If you plan on going to any event at the Cowboys Stadium, or The Rangers Ballpark from this location give yourself a good 1.5 - 2 hour travel time, as traffic and construction are outrageous. Now that I'm familiar with the property I will come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r164407962-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>164407962</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Needs Some TLC</t>
+  </si>
+  <si>
+    <t>This hotel is located in a rundown neighborhood. The nearby Paul's Porterhouse Steak and Seafood was padlocked and the place across the street looked like the roof was caving in. The lobby and breakfast area were very nice.  Our room, handicapped, (which we did not ask for), was large, clean and quiet. As there were not any restaurants in the area where we would feel comfortable, the desk clerk gave us a suggestion which turned out to be perfect.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r164106086-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>164106086</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay, Good Value!</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel.  The staff was very friendly and helpful.  The 24 hour pool and fitness center was an unexpected bonus.  The lobby, breakfast area and rooms were all very clean and well maintained.  Restaurants and Freeway are nearby.  It was a nice stay and a good value.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r159436704-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>159436704</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Bob G</t>
+  </si>
+  <si>
+    <t>The hotel was excellent. The room was clean and had a micro wave, fridge and coffe maker. The staff was friendly. The breakfast was very good. The only draw back was that they did not have shuttle service to Love Field.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r158615670-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>158615670</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Band Trip</t>
+  </si>
+  <si>
+    <t>For simplicity, our trip was arranged via email after being referred by hotels.com which was a big time saver for me. After that, any room adjustments that needed to be done were immediate &amp; without penalty &amp; at a reduced rate due to us being a group. Also, my male &amp; female rooms were kept on separate floors without request (a big advantage when traveling with students). Rooms were clean, breakfast was a nice selection &amp; well prepared, &amp; other amenities were fantastic as well. All of the staff were very helpful &amp; welcoming as well as accepting of a group of 18 high school students. The lobby's stair case is quite pretty as well. Excellent stay! Will definitely book here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>For simplicity, our trip was arranged via email after being referred by hotels.com which was a big time saver for me. After that, any room adjustments that needed to be done were immediate &amp; without penalty &amp; at a reduced rate due to us being a group. Also, my male &amp; female rooms were kept on separate floors without request (a big advantage when traveling with students). Rooms were clean, breakfast was a nice selection &amp; well prepared, &amp; other amenities were fantastic as well. All of the staff were very helpful &amp; welcoming as well as accepting of a group of 18 high school students. The lobby's stair case is quite pretty as well. Excellent stay! Will definitely book here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r156491334-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>156491334</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Comfort Inn Dallas TX On Composite DR</t>
+  </si>
+  <si>
+    <t>Everything Was Great from room to the pool and breakfast. Close To Expressways and Downtown front desk people were great at directions and short cuts. Looking forward to my trip back there in June 2013!!!!!!!!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r154912921-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154912921</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>My family and i recently stayed at this hotel. We just stop  back to see if the hotel had an indoor pool. The front desk clerk was very nice and helpful to us she even let us look inside the suite. The suites were nice and roomy. What I liked most was that it had a separate bedroom. The rooms were comfortable clean, and the sleeper sofa was comfortable as well. My family enjoyed the breakfast and the pool. We will most likely stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r154041223-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154041223</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>Nice enough hotel, but not such a good neighborhood</t>
+  </si>
+  <si>
+    <t>We checked in early, which was nice of the hotel staff.  Got to the room; it was freezing &amp; the unit would not turn on!  We left for the afternoon and when we returned they had repaired the heater.  Breakfast Room only had 6 tables for a 3 story hotel....definitely not enough to accomodate guests, especially on the weekend.  Overall stay was pleasant enough, but the neighborhood was ghetto.  Not going to choose this one next time.  Comfort Suites is a better choice from a previous Dallas stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r153931096-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>153931096</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Great!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were very clean, everything worked! Plenty of towels, soft pillows, the most comfortable bed I have ever been on in a hotel, indoor pool and jacuzzi, plus a whirlpool tub in our room. Staff was friendly. Easy to find. Just a few minutes away from Downtown Dallas. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r153681899-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>153681899</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>I don't think many executives would want this room.</t>
+  </si>
+  <si>
+    <t>Doors in the room didn't close properly.  Handle came off of the 'bedroom' door a couple times.  TVs need immediate replacement, they are still tubes.  Didn't get to use the pool or hot tub.  There wasn't a lot to do in the immediate area.  I think I'll stay somewhere else next time.  This is nothing like the Comfort Suites in New Braunfels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r150867341-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>150867341</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Not too Bad</t>
+  </si>
+  <si>
+    <t>I was satisfied with this hotel. The room was clean and comfortable. Breakfast was pretty good and filling. It was nice and close to the highway. There is a gentleman's club close by, but we weren't bothered by it. The TV was the old tube, swimming pool water very cold and the whirlpool didn't work :( I specifically looked for an indoor pool due to traveling in January so it made for a boring stay for the kids. We used the fitness room but again the TV is old so while working out it was hard to hear the TV. The free Wi-Fi was also nice to have. Overall for the price I would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I was satisfied with this hotel. The room was clean and comfortable. Breakfast was pretty good and filling. It was nice and close to the highway. There is a gentleman's club close by, but we weren't bothered by it. The TV was the old tube, swimming pool water very cold and the whirlpool didn't work :( I specifically looked for an indoor pool due to traveling in January so it made for a boring stay for the kids. We used the fitness room but again the TV is old so while working out it was hard to hear the TV. The free Wi-Fi was also nice to have. Overall for the price I would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r149834122-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>149834122</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>I was very satisfied with the stay and hotel. Breakfast was great, however the receptionist was very rude! (msanti.txa01) The location was convenient for our trip but the construction and traffic was bad. Overall our stay was great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r148825940-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>148825940</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Can't complain</t>
+  </si>
+  <si>
+    <t>I used this hotel two separate times this past november, I had a good stay both times, nothing really fancy but it has the basics if you need to stay for business reason in the area. Rooms are clean and good size, I liked the hot breakfast and manager's welcome cocktail (I think it was just a few weekdays) but I really like this details. Although it is near the highway I didn't noticed excessive noise. The area is not nice but you won't need to go walking outside, It has also a fitness room.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r142247634-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142247634</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Well Worth It!!!</t>
+  </si>
+  <si>
+    <t>Stayed for two days starting 9/30/12. Service at the front desk was very good, no matter what time of day or night.!!! Breakfast had a varied selection of hot and cold items and the quality was quite good.. The hotel's location is easy to find off of I35E and though it is near the freeway noise was not an issue. The business center is very good(2 computers and printers) and is open 24 hrs., you need to get a key from the front desk to access the business center, you will undersatnd why this is necessary when you check-in. Parking is easy....WOULD STAY AGAIN!!!!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r142140927-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142140927</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>bad Neighborhood and old inside</t>
+  </si>
+  <si>
+    <t>dont stay here with a family/kids!!! BIG warning!!!! Had to sign a waver if your car gets vandalized its not their fault.  Old inside too.  Pics make this hotel look new and comfortable.Simply misleading info/pics/location.Only stay here if your a man, flying out the next morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r138058030-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>138058030</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Quick Late Night/Early Morning Stay</t>
+  </si>
+  <si>
+    <t>While many guests tend to complain about the location of the hotel, I did not have any issues or feel unsafe upon arriving at 12:15 a.m. alone and of the female gender, nor did I experience any troubles upon my departure at 7:00 a.m. the next morning.  In fact, the location never became an issue.  Although a short in and out stay, my entire experience was very good.  The staff was courteous and friendly at all times, and the room was clean and equipped with all the essentials.  I did not partake of the hot breakfast the next morning, but my parents did and seemed to be quite satisfied with the selection and taste of everything.  Not that this is important, but what I was most impressed with was how cool and odor free the hallways seemed to be compared to the way hotel hallways usually are....hot and musty.  I'd definitely recommend this location to another traveler.  TheMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Dutt P, General Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded September 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2012</t>
+  </si>
+  <si>
+    <t>While many guests tend to complain about the location of the hotel, I did not have any issues or feel unsafe upon arriving at 12:15 a.m. alone and of the female gender, nor did I experience any troubles upon my departure at 7:00 a.m. the next morning.  In fact, the location never became an issue.  Although a short in and out stay, my entire experience was very good.  The staff was courteous and friendly at all times, and the room was clean and equipped with all the essentials.  I did not partake of the hot breakfast the next morning, but my parents did and seemed to be quite satisfied with the selection and taste of everything.  Not that this is important, but what I was most impressed with was how cool and odor free the hallways seemed to be compared to the way hotel hallways usually are....hot and musty.  I'd definitely recommend this location to another traveler.  TheMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r126209277-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>126209277</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>BAD SERVICE! OUTDATED! BAD LOCATION!!!!!!!! NOT for families!</t>
+  </si>
+  <si>
+    <t>First of all this place is next door to a Gentlemen's club!!! It's in a bad part of Dallas, very scary! One street over and your in china town?! This place NEEDS a makeover!!!! there is only one elevator and it was a MESS and took FOREVER!! The TVs were not flat screens which is not a big deal but the picture wasn't even clear!!!! The service was HORRIBLE! During check in there was a paper on the pool windows stating it was "closed for repairs" but there were people swimming, the attendant Mary Ann told us it was closed but we could swim now. Later that night we asked her what time it closed and she stated it was open 24 hours as long as we were quiet. We went swimming but when we asked for towels Walter told us we couldnt have any because THATS WHY WE ARE NOT SUPPOSED TO BE SWIMMING, like its out fault because its under construction!?!?! Mary Ann told us we could? So we couldnt get towels, even though in our bathroom a sign tells you not to take your towels that some would be provided for you. OVERALL, it was horrible, the beds are not comfortable, it was messy in the hallways, the breakfast had waffles but they kept sticking to the machine because the breakfast attendants came out to spray it with the non stick spray every once in awhile, instead...First of all this place is next door to a Gentlemen's club!!! It's in a bad part of Dallas, very scary! One street over and your in china town?! This place NEEDS a makeover!!!! there is only one elevator and it was a MESS and took FOREVER!! The TVs were not flat screens which is not a big deal but the picture wasn't even clear!!!! The service was HORRIBLE! During check in there was a paper on the pool windows stating it was "closed for repairs" but there were people swimming, the attendant Mary Ann told us it was closed but we could swim now. Later that night we asked her what time it closed and she stated it was open 24 hours as long as we were quiet. We went swimming but when we asked for towels Walter told us we couldnt have any because THATS WHY WE ARE NOT SUPPOSED TO BE SWIMMING, like its out fault because its under construction!?!?! Mary Ann told us we could? So we couldnt get towels, even though in our bathroom a sign tells you not to take your towels that some would be provided for you. OVERALL, it was horrible, the beds are not comfortable, it was messy in the hallways, the breakfast had waffles but they kept sticking to the machine because the breakfast attendants came out to spray it with the non stick spray every once in awhile, instead of leaving it out like the other places. THIS PLACE IS WAY OVERPRICED! the 3rd night we stayed at Baymont Inn and Suites same price, indoor pool and it TOPS this! Same price and it is a FULL UPGRADE, flat screens modern room. GO THERE! I left a great review! This place was a total disappointment :(MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Dutt P, Guest Relations Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded July 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2012</t>
+  </si>
+  <si>
+    <t>First of all this place is next door to a Gentlemen's club!!! It's in a bad part of Dallas, very scary! One street over and your in china town?! This place NEEDS a makeover!!!! there is only one elevator and it was a MESS and took FOREVER!! The TVs were not flat screens which is not a big deal but the picture wasn't even clear!!!! The service was HORRIBLE! During check in there was a paper on the pool windows stating it was "closed for repairs" but there were people swimming, the attendant Mary Ann told us it was closed but we could swim now. Later that night we asked her what time it closed and she stated it was open 24 hours as long as we were quiet. We went swimming but when we asked for towels Walter told us we couldnt have any because THATS WHY WE ARE NOT SUPPOSED TO BE SWIMMING, like its out fault because its under construction!?!?! Mary Ann told us we could? So we couldnt get towels, even though in our bathroom a sign tells you not to take your towels that some would be provided for you. OVERALL, it was horrible, the beds are not comfortable, it was messy in the hallways, the breakfast had waffles but they kept sticking to the machine because the breakfast attendants came out to spray it with the non stick spray every once in awhile, instead...First of all this place is next door to a Gentlemen's club!!! It's in a bad part of Dallas, very scary! One street over and your in china town?! This place NEEDS a makeover!!!! there is only one elevator and it was a MESS and took FOREVER!! The TVs were not flat screens which is not a big deal but the picture wasn't even clear!!!! The service was HORRIBLE! During check in there was a paper on the pool windows stating it was "closed for repairs" but there were people swimming, the attendant Mary Ann told us it was closed but we could swim now. Later that night we asked her what time it closed and she stated it was open 24 hours as long as we were quiet. We went swimming but when we asked for towels Walter told us we couldnt have any because THATS WHY WE ARE NOT SUPPOSED TO BE SWIMMING, like its out fault because its under construction!?!?! Mary Ann told us we could? So we couldnt get towels, even though in our bathroom a sign tells you not to take your towels that some would be provided for you. OVERALL, it was horrible, the beds are not comfortable, it was messy in the hallways, the breakfast had waffles but they kept sticking to the machine because the breakfast attendants came out to spray it with the non stick spray every once in awhile, instead of leaving it out like the other places. THIS PLACE IS WAY OVERPRICED! the 3rd night we stayed at Baymont Inn and Suites same price, indoor pool and it TOPS this! Same price and it is a FULL UPGRADE, flat screens modern room. GO THERE! I left a great review! This place was a total disappointment :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r126062170-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>126062170</t>
+  </si>
+  <si>
+    <t>03/13/2012</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>I came in late and everything was comfortable from the front desk to my bed. It was like walking into my home. The only thing I didn't realize was that I got a smoking room until I noticed the ash tray, plus side though, didn't smell like one.  So we stayed. I def recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r123359991-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>123359991</t>
+  </si>
+  <si>
+    <t>01/20/2012</t>
+  </si>
+  <si>
+    <t>Good bargain in a small package</t>
+  </si>
+  <si>
+    <t>This motel is relatively small, but it has an indoor pool, exercise room and computer business office.  Fresh cookies are always available and Happy Hour lasts an hour and a half in the late afternoon.  The hot breakfast is well-prepared and varies often.The rooms are small but adequate, the beds comfortable and the staff friendly and responsive.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded January 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2012</t>
+  </si>
+  <si>
+    <t>This motel is relatively small, but it has an indoor pool, exercise room and computer business office.  Fresh cookies are always available and Happy Hour lasts an hour and a half in the late afternoon.  The hot breakfast is well-prepared and varies often.The rooms are small but adequate, the beds comfortable and the staff friendly and responsive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r117958318-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>117958318</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>Great value but....</t>
+  </si>
+  <si>
+    <t>For the price of 59 a night, it is a great value.  This is my second stay this year. Very quiet on a sunday night. No problems with front desk. Negatives- pool is out of order. Non smoking room has a hint of smoke.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r117806568-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>117806568</t>
+  </si>
+  <si>
+    <t>09/07/2011</t>
+  </si>
+  <si>
+    <t>Will never stay here again!</t>
+  </si>
+  <si>
+    <t>When we checked in, the desk clerk was extremely pleasant and welcoming.  An hour later, my husband went to the desk to get a new room key because his did not work.  He waited for quite a while and no one ever came to the lobby desk.  He pounded his fist on the desk a couple of times to try to attract attention from the adjoining office.  The manager on duty appeared and began to call my husband some VERY derogatory names, told him he could just wait, he was not king.  He then asked to see my husband's identification to check and make sure he was registered.  When my huband handed him his driver's license, he threw it across the room and told him to get out of the hotel.  My husband retireved his license and left the lobby, telling the manager that we intended to stay - that we had already paid for 2 rooms (my daughter &amp; family were there too).  As he walked away, the manager yelled that he would erase the payment from the hotel's computer.  We have styaed at this Comfort Inn a number of times since it isx close to my other daughter's apartment.  However, we will never stay there again after this very rude treatment.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>When we checked in, the desk clerk was extremely pleasant and welcoming.  An hour later, my husband went to the desk to get a new room key because his did not work.  He waited for quite a while and no one ever came to the lobby desk.  He pounded his fist on the desk a couple of times to try to attract attention from the adjoining office.  The manager on duty appeared and began to call my husband some VERY derogatory names, told him he could just wait, he was not king.  He then asked to see my husband's identification to check and make sure he was registered.  When my huband handed him his driver's license, he threw it across the room and told him to get out of the hotel.  My husband retireved his license and left the lobby, telling the manager that we intended to stay - that we had already paid for 2 rooms (my daughter &amp; family were there too).  As he walked away, the manager yelled that he would erase the payment from the hotel's computer.  We have styaed at this Comfort Inn a number of times since it isx close to my other daughter's apartment.  However, we will never stay there again after this very rude treatment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r91776532-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>91776532</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Not bad for the price. Clean and very quiet. Near sam moons and harry hines stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement_CEG, Manager at Quality Inn &amp; Suites I-35 / Walnut Hill, responded to this reviewResponded February 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2011</t>
+  </si>
+  <si>
+    <t>Not bad for the price. Clean and very quiet. Near sam moons and harry hines stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r67541795-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>67541795</t>
+  </si>
+  <si>
+    <t>06/14/2010</t>
+  </si>
+  <si>
+    <t>Fantastic hotel close to airport</t>
+  </si>
+  <si>
+    <t>After missing a connecting flight due to bad weather we were given a "Distressed Passenger" rate at the Comfort Inn.  The front desk staff was extremely accommodating, offering toiletries to passengers who did not have luggage.  The room was large and bedding was comfortable.  There is a free shuttle to and from the airport and apparently to a nearby Wal-Mart.  Excellent  and varied continental breakfast too! Free internet in lobby and nice outdoor pool. We were very impressed with this hotel.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r66343076-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>66343076</t>
+  </si>
+  <si>
+    <t>06/03/2010</t>
+  </si>
+  <si>
+    <t>Good business hotel for the price.</t>
+  </si>
+  <si>
+    <t>Let me start by saying that if I could give this place 3 1/2 stars I would. It's slightly above 'average', but not quite 'very good'; rather it's a SOLID 'good' rating as I see it. Other reviews below touch on some of the more important issues related to this property. I'll try to expand upon some of the more important factors which I find of greater significance which matter to me.
+Location: When I'm in Dallas, I have to travel to appoinments all over Dallas. Typically from downtown -to- Park Cities -to- Plano -to- Garland -to- etc! I find this location, on the NorthWestern side of Dallas, to be very adequate in terms of it's location to the metroplex as a whole. It's right off the highway @ 35E &amp; Walnut Hill (About 1 Mile South of 35E &amp; 635). I give it top marks in Location. As to the 'strip clubs' noted by a previous trip advisor member... beware, there are multiple strip clubs around this hotel. I usually don't have a problem with this, but then again I stay here as a business man with no family members present. Now, I would say there are NOT "drunken men" hanging around this hotel as previously indicated - that's a bit misleading. In fact, I have typically found this area to be usually quiet with not problems of vagrants or drunkerds hanging around this property. I have never brought...Let me start by saying that if I could give this place 3 1/2 stars I would. It's slightly above 'average', but not quite 'very good'; rather it's a SOLID 'good' rating as I see it. Other reviews below touch on some of the more important issues related to this property. I'll try to expand upon some of the more important factors which I find of greater significance which matter to me.Location: When I'm in Dallas, I have to travel to appoinments all over Dallas. Typically from downtown -to- Park Cities -to- Plano -to- Garland -to- etc! I find this location, on the NorthWestern side of Dallas, to be very adequate in terms of it's location to the metroplex as a whole. It's right off the highway @ 35E &amp; Walnut Hill (About 1 Mile South of 35E &amp; 635). I give it top marks in Location. As to the 'strip clubs' noted by a previous trip advisor member... beware, there are multiple strip clubs around this hotel. I usually don't have a problem with this, but then again I stay here as a business man with no family members present. Now, I would say there are NOT "drunken men" hanging around this hotel as previously indicated - that's a bit misleading. In fact, I have typically found this area to be usually quiet with not problems of vagrants or drunkerds hanging around this property. I have never brought my family (wife &amp; child)  to this hotel, as I'm always here on business - but I don't think I would have a problem doing so if need be. Cleanliness: Your Mileage May Vary... However, I have stayed at this location about 15 times over the past year, and have always had clean, fresh rooms. Typically there is nothing I can complain about in terms of the overall 'cleanliness' of these rooms. HOWEVER, I will say that these rooms are not as modern as some of your more recently built Comfort Inns. So, the decor may seem a little dated to most travelers; especially if you like features like flatscreen TV's in your room or granite counter tops in the bath rooms - don't expect that here, just your basic accomodations a good price (for Dallas hotels).  Some people may construe these 'dated rooms' as not being clean, but I see this as just old age and wear &amp; tear on this slightly older hotel. I will say I have never had 'mold' or insect problems in my rooms, but again... YMMV!Service: Typical chain type hotel staff. Friendly enough, and address minimal issues as needed (i.e. requesting a CAT-5 cable, etc). However, I have never had major problems or concerns when staying here. Nothing that terrible or special in this category - just run of the mill interactions with employees on duty. Rooms: I touched base on this one above. Hotel is a bit 'older'. Probably in the neighborhood of 10-12 years old Decor is a bit dated for my personal taste. No flat  screen TV's, granite counters, fancy linnens or bedding, etc. However, rooms I've stayed in are typically clean and nice... no major issues to cause concern over. Sleep Quality: Just 'ok'. Again, nothing that special, but then again not that bad - just average in this category. I did sleep good. You don't hear the highway next to the hotel, and I've always found the hotel to be very quiet during late night/sleep hours.Value: Very excellent value for a typical Dallas hotel. Rates are pretty on on ChoiceHotels.com, and I've even negotiated reasonal rates without a reservation. Other Features: They have an excellent 'breakfast' and 'happy hour' at this property. They actually make real eggs in the morning, have real sausage or beacon and even tortillas for tacos (I love me sum tacos)! They have complimentary beer (usually Miller light) and wine with finger foods around 6PM (p.s. - beer is as much as you can drink, so bottoms up)! These two features are the reason I keep comming back to this property. This really separates them from their competition as far as I'm concerned - especially for the price. Also, you are literality 5 min from 'restaurant row' at 35E &amp; Northwest Highway - which offers multiple restaurants and bars if you need to head out for the evening. Overall: Great business hotel for the price and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Let me start by saying that if I could give this place 3 1/2 stars I would. It's slightly above 'average', but not quite 'very good'; rather it's a SOLID 'good' rating as I see it. Other reviews below touch on some of the more important issues related to this property. I'll try to expand upon some of the more important factors which I find of greater significance which matter to me.
+Location: When I'm in Dallas, I have to travel to appoinments all over Dallas. Typically from downtown -to- Park Cities -to- Plano -to- Garland -to- etc! I find this location, on the NorthWestern side of Dallas, to be very adequate in terms of it's location to the metroplex as a whole. It's right off the highway @ 35E &amp; Walnut Hill (About 1 Mile South of 35E &amp; 635). I give it top marks in Location. As to the 'strip clubs' noted by a previous trip advisor member... beware, there are multiple strip clubs around this hotel. I usually don't have a problem with this, but then again I stay here as a business man with no family members present. Now, I would say there are NOT "drunken men" hanging around this hotel as previously indicated - that's a bit misleading. In fact, I have typically found this area to be usually quiet with not problems of vagrants or drunkerds hanging around this property. I have never brought...Let me start by saying that if I could give this place 3 1/2 stars I would. It's slightly above 'average', but not quite 'very good'; rather it's a SOLID 'good' rating as I see it. Other reviews below touch on some of the more important issues related to this property. I'll try to expand upon some of the more important factors which I find of greater significance which matter to me.Location: When I'm in Dallas, I have to travel to appoinments all over Dallas. Typically from downtown -to- Park Cities -to- Plano -to- Garland -to- etc! I find this location, on the NorthWestern side of Dallas, to be very adequate in terms of it's location to the metroplex as a whole. It's right off the highway @ 35E &amp; Walnut Hill (About 1 Mile South of 35E &amp; 635). I give it top marks in Location. As to the 'strip clubs' noted by a previous trip advisor member... beware, there are multiple strip clubs around this hotel. I usually don't have a problem with this, but then again I stay here as a business man with no family members present. Now, I would say there are NOT "drunken men" hanging around this hotel as previously indicated - that's a bit misleading. In fact, I have typically found this area to be usually quiet with not problems of vagrants or drunkerds hanging around this property. I have never brought my family (wife &amp; child)  to this hotel, as I'm always here on business - but I don't think I would have a problem doing so if need be. Cleanliness: Your Mileage May Vary... However, I have stayed at this location about 15 times over the past year, and have always had clean, fresh rooms. Typically there is nothing I can complain about in terms of the overall 'cleanliness' of these rooms. HOWEVER, I will say that these rooms are not as modern as some of your more recently built Comfort Inns. So, the decor may seem a little dated to most travelers; especially if you like features like flatscreen TV's in your room or granite counter tops in the bath rooms - don't expect that here, just your basic accomodations a good price (for Dallas hotels).  Some people may construe these 'dated rooms' as not being clean, but I see this as just old age and wear &amp; tear on this slightly older hotel. I will say I have never had 'mold' or insect problems in my rooms, but again... YMMV!Service: Typical chain type hotel staff. Friendly enough, and address minimal issues as needed (i.e. requesting a CAT-5 cable, etc). However, I have never had major problems or concerns when staying here. Nothing that terrible or special in this category - just run of the mill interactions with employees on duty. Rooms: I touched base on this one above. Hotel is a bit 'older'. Probably in the neighborhood of 10-12 years old Decor is a bit dated for my personal taste. No flat  screen TV's, granite counters, fancy linnens or bedding, etc. However, rooms I've stayed in are typically clean and nice... no major issues to cause concern over. Sleep Quality: Just 'ok'. Again, nothing that special, but then again not that bad - just average in this category. I did sleep good. You don't hear the highway next to the hotel, and I've always found the hotel to be very quiet during late night/sleep hours.Value: Very excellent value for a typical Dallas hotel. Rates are pretty on on ChoiceHotels.com, and I've even negotiated reasonal rates without a reservation. Other Features: They have an excellent 'breakfast' and 'happy hour' at this property. They actually make real eggs in the morning, have real sausage or beacon and even tortillas for tacos (I love me sum tacos)! They have complimentary beer (usually Miller light) and wine with finger foods around 6PM (p.s. - beer is as much as you can drink, so bottoms up)! These two features are the reason I keep comming back to this property. This really separates them from their competition as far as I'm concerned - especially for the price. Also, you are literality 5 min from 'restaurant row' at 35E &amp; Northwest Highway - which offers multiple restaurants and bars if you need to head out for the evening. Overall: Great business hotel for the price and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r61854834-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>61854834</t>
+  </si>
+  <si>
+    <t>04/18/2010</t>
+  </si>
+  <si>
+    <t>Do NOT take your family to this area!</t>
+  </si>
+  <si>
+    <t>looked ok until we turned down the street all around was strip clubs and "massage" parlors if that is your thing then stay here.. otherwise take your family and run! there were drunk men everywhere.. i have never seen anything like this......</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r38596639-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>38596639</t>
+  </si>
+  <si>
+    <t>08/23/2009</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel had some bad reviews, but I took a chance anyways.  Yes, there is a Gentlemans Club on the street, and there is a massage parlor up the street.  You can not fault the hotel for this.  Despite the bad reviews I found that it was probably one of the nicest places I could have stayed on this trip.  Its a very nice property with friendly staff.  The room was clean and fresh.  The bed was a bit hard but I am used to sleeeping on a much softer mattress, so it might be just right for most travelers.  I was quite impressed with the decor, its not the run of the mill Choice Hotels decor.  I found out that it was hand painted by an artist that they brought from Atlanta.  This gives the hotel more of a homey feel.  The lobby has a really pretty sittting area with a nice staircase to the second floor.  The breakfast area is right off that.  The breakfast was fantastic.  They served Migas with refried beans and tortiallas.  Very very good breakfast.  They also had the regular cereals, breads, coffee, juices, ect.  They do offer security for the property.  The parking was well lit and the street fairly quiet.  I would diffentantly stay again.  They have a really pretty King Spa room that has a white poster bed and is done out in French Blue and white.  Might be nice for...This hotel had some bad reviews, but I took a chance anyways.  Yes, there is a Gentlemans Club on the street, and there is a massage parlor up the street.  You can not fault the hotel for this.  Despite the bad reviews I found that it was probably one of the nicest places I could have stayed on this trip.  Its a very nice property with friendly staff.  The room was clean and fresh.  The bed was a bit hard but I am used to sleeeping on a much softer mattress, so it might be just right for most travelers.  I was quite impressed with the decor, its not the run of the mill Choice Hotels decor.  I found out that it was hand painted by an artist that they brought from Atlanta.  This gives the hotel more of a homey feel.  The lobby has a really pretty sittting area with a nice staircase to the second floor.  The breakfast area is right off that.  The breakfast was fantastic.  They served Migas with refried beans and tortiallas.  Very very good breakfast.  They also had the regular cereals, breads, coffee, juices, ect.  They do offer security for the property.  The parking was well lit and the street fairly quiet.  I would diffentantly stay again.  They have a really pretty King Spa room that has a white poster bed and is done out in French Blue and white.  Might be nice for a romantic stay.  There is also an amusement park across the interstate that might be fun for the kdis.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>This hotel had some bad reviews, but I took a chance anyways.  Yes, there is a Gentlemans Club on the street, and there is a massage parlor up the street.  You can not fault the hotel for this.  Despite the bad reviews I found that it was probably one of the nicest places I could have stayed on this trip.  Its a very nice property with friendly staff.  The room was clean and fresh.  The bed was a bit hard but I am used to sleeeping on a much softer mattress, so it might be just right for most travelers.  I was quite impressed with the decor, its not the run of the mill Choice Hotels decor.  I found out that it was hand painted by an artist that they brought from Atlanta.  This gives the hotel more of a homey feel.  The lobby has a really pretty sittting area with a nice staircase to the second floor.  The breakfast area is right off that.  The breakfast was fantastic.  They served Migas with refried beans and tortiallas.  Very very good breakfast.  They also had the regular cereals, breads, coffee, juices, ect.  They do offer security for the property.  The parking was well lit and the street fairly quiet.  I would diffentantly stay again.  They have a really pretty King Spa room that has a white poster bed and is done out in French Blue and white.  Might be nice for...This hotel had some bad reviews, but I took a chance anyways.  Yes, there is a Gentlemans Club on the street, and there is a massage parlor up the street.  You can not fault the hotel for this.  Despite the bad reviews I found that it was probably one of the nicest places I could have stayed on this trip.  Its a very nice property with friendly staff.  The room was clean and fresh.  The bed was a bit hard but I am used to sleeeping on a much softer mattress, so it might be just right for most travelers.  I was quite impressed with the decor, its not the run of the mill Choice Hotels decor.  I found out that it was hand painted by an artist that they brought from Atlanta.  This gives the hotel more of a homey feel.  The lobby has a really pretty sittting area with a nice staircase to the second floor.  The breakfast area is right off that.  The breakfast was fantastic.  They served Migas with refried beans and tortiallas.  Very very good breakfast.  They also had the regular cereals, breads, coffee, juices, ect.  They do offer security for the property.  The parking was well lit and the street fairly quiet.  I would diffentantly stay again.  They have a really pretty King Spa room that has a white poster bed and is done out in French Blue and white.  Might be nice for a romantic stay.  There is also an amusement park across the interstate that might be fun for the kdis.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r25100874-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>25100874</t>
+  </si>
+  <si>
+    <t>02/24/2009</t>
+  </si>
+  <si>
+    <t>easy stay</t>
+  </si>
+  <si>
+    <t>quick 10 minute drive down I-35 to downtown Dallas, and restaurant row was just the next exit south... very easy stay, checkin and checkout took less than a minute, frontdesk guys were very helpful...</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r24670165-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>24670165</t>
+  </si>
+  <si>
+    <t>02/17/2009</t>
+  </si>
+  <si>
+    <t>Comfort Inn &amp; Suites</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel.  Im visiting Parker College which is in walking distance from the hotel making it very convenient for travel.  The guy at the front desk was very nice and professional.  The room was reallly nice and clean.  Breakfast  area was very clean and organized.   There were numorous resturants located around the hotel which made dinning easy.  I would definitely come back to this hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r5837313-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>5837313</t>
+  </si>
+  <si>
+    <t>09/24/2006</t>
+  </si>
+  <si>
+    <t>Cockroach in our room!</t>
+  </si>
+  <si>
+    <t>We had a cockroach in our room on the last night we were there.  It wasn't dead yet, and we contacted the front desk.  Their response was that they couldn't do anything for an hour until housekeeping arrived.  We contacted the 1-800 number for Country Inns &amp; Suites who had the front desk person come up to "apologize" to us.  Customer Service called us today, but really didn't seem to care about our complaint.  They made excuses for the way we were treated!  Needless to say, we will never stay at another Country Inn &amp; Suites!  Find a chain who cares about their customers!</t>
+  </si>
+  <si>
+    <t>September 2006</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2129,4689 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>228</v>
+      </c>
+      <c r="X30" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>243</v>
+      </c>
+      <c r="X32" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>251</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>251</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>263</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>264</v>
+      </c>
+      <c r="X35" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>272</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>273</v>
+      </c>
+      <c r="X36" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>273</v>
+      </c>
+      <c r="X37" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>282</v>
+      </c>
+      <c r="J38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s">
+        <v>285</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>286</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>287</v>
+      </c>
+      <c r="X38" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s">
+        <v>293</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>294</v>
+      </c>
+      <c r="X39" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" t="s">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" t="s">
+        <v>301</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>302</v>
+      </c>
+      <c r="O40" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>303</v>
+      </c>
+      <c r="X40" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>311</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>311</v>
+      </c>
+      <c r="X42" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>326</v>
+      </c>
+      <c r="X43" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>334</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>335</v>
+      </c>
+      <c r="X44" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" t="s">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>349</v>
+      </c>
+      <c r="X46" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49" t="s">
+        <v>368</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>369</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s">
+        <v>374</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>381</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+      <c r="J53" t="s">
+        <v>388</v>
+      </c>
+      <c r="K53" t="s">
+        <v>389</v>
+      </c>
+      <c r="L53" t="s">
+        <v>390</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>381</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>391</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>392</v>
+      </c>
+      <c r="J54" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" t="s">
+        <v>394</v>
+      </c>
+      <c r="L54" t="s">
+        <v>395</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" t="s">
+        <v>399</v>
+      </c>
+      <c r="L55" t="s">
+        <v>400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>401</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>402</v>
+      </c>
+      <c r="J56" t="s">
+        <v>403</v>
+      </c>
+      <c r="K56" t="s">
+        <v>404</v>
+      </c>
+      <c r="L56" t="s">
+        <v>405</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>406</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" t="s">
+        <v>412</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>406</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>414</v>
+      </c>
+      <c r="J58" t="s">
+        <v>415</v>
+      </c>
+      <c r="K58" t="s">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s">
+        <v>417</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>418</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>420</v>
+      </c>
+      <c r="J59" t="s">
+        <v>421</v>
+      </c>
+      <c r="K59" t="s">
+        <v>422</v>
+      </c>
+      <c r="L59" t="s">
+        <v>423</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>424</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>425</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>426</v>
+      </c>
+      <c r="J60" t="s">
+        <v>427</v>
+      </c>
+      <c r="K60" t="s">
+        <v>428</v>
+      </c>
+      <c r="L60" t="s">
+        <v>429</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>424</v>
+      </c>
+      <c r="O60" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>430</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>431</v>
+      </c>
+      <c r="J61" t="s">
+        <v>432</v>
+      </c>
+      <c r="K61" t="s">
+        <v>433</v>
+      </c>
+      <c r="L61" t="s">
+        <v>434</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>435</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>436</v>
+      </c>
+      <c r="X61" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>439</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>440</v>
+      </c>
+      <c r="J62" t="s">
+        <v>441</v>
+      </c>
+      <c r="K62" t="s">
+        <v>442</v>
+      </c>
+      <c r="L62" t="s">
+        <v>443</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>444</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>445</v>
+      </c>
+      <c r="X62" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>449</v>
+      </c>
+      <c r="J63" t="s">
+        <v>450</v>
+      </c>
+      <c r="K63" t="s">
+        <v>451</v>
+      </c>
+      <c r="L63" t="s">
+        <v>452</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>453</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>454</v>
+      </c>
+      <c r="J64" t="s">
+        <v>455</v>
+      </c>
+      <c r="K64" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>458</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>459</v>
+      </c>
+      <c r="X64" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>463</v>
+      </c>
+      <c r="J65" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+      <c r="L65" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>467</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>468</v>
+      </c>
+      <c r="J66" t="s">
+        <v>469</v>
+      </c>
+      <c r="K66" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66" t="s">
+        <v>471</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>472</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>474</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>475</v>
+      </c>
+      <c r="J67" t="s">
+        <v>476</v>
+      </c>
+      <c r="K67" t="s">
+        <v>477</v>
+      </c>
+      <c r="L67" t="s">
+        <v>478</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>479</v>
+      </c>
+      <c r="X67" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" t="s">
+        <v>484</v>
+      </c>
+      <c r="K68" t="s">
+        <v>485</v>
+      </c>
+      <c r="L68" t="s">
+        <v>486</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>487</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>488</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>489</v>
+      </c>
+      <c r="J69" t="s">
+        <v>490</v>
+      </c>
+      <c r="K69" t="s">
+        <v>491</v>
+      </c>
+      <c r="L69" t="s">
+        <v>492</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>493</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>495</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>496</v>
+      </c>
+      <c r="J70" t="s">
+        <v>497</v>
+      </c>
+      <c r="K70" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" t="s">
+        <v>499</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>500</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>501</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>502</v>
+      </c>
+      <c r="J71" t="s">
+        <v>503</v>
+      </c>
+      <c r="K71" t="s">
+        <v>504</v>
+      </c>
+      <c r="L71" t="s">
+        <v>505</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>506</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>508</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>509</v>
+      </c>
+      <c r="J72" t="s">
+        <v>510</v>
+      </c>
+      <c r="K72" t="s">
+        <v>511</v>
+      </c>
+      <c r="L72" t="s">
+        <v>512</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>513</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>514</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>515</v>
+      </c>
+      <c r="J73" t="s">
+        <v>516</v>
+      </c>
+      <c r="K73" t="s">
+        <v>517</v>
+      </c>
+      <c r="L73" t="s">
+        <v>518</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>513</v>
+      </c>
+      <c r="O73" t="s">
+        <v>100</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39525</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>519</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>520</v>
+      </c>
+      <c r="J74" t="s">
+        <v>521</v>
+      </c>
+      <c r="K74" t="s">
+        <v>522</v>
+      </c>
+      <c r="L74" t="s">
+        <v>523</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>524</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_616.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_616.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Bruce S</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I did not have high expectations as the good reviews I thought were fake.  I actually really liked this place.  The front desk people were nice and helpful.  The room was amazingly clean way beyond what I expected.  The hotel smelled clean or it was the smell of the indoor people, whatever it was, it felt clean.  Breakfast was good although the orange juice was great.  It was further than where I like to stay, but I might stay here again.  It is by the highway so you will hear the traffic.  It might be better to stay away from the traffic so you don't hear the cars.  They offered me a room away, but I always feel better being able to see my car.  The bed and pillows were comfortable also.  Shower had good hot water with so so pressure.More</t>
   </si>
   <si>
+    <t>Camille C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r553453514-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>We've stayed there several times. Yes it's a sketchy area but it's close to where we do business on Harry Hine Blvd. This time we got bit. Our van was stolen from a spot 30 feet from the front door. The Manager said video - which I was not allowed to see - showed people drive up behind it and spend +- 15 minutes fussing to get it started..so this wasn't some Random Tweaker deal.Know that there is a big monitor on the Front Desk which would have shown this and since it was 7:45 PM you'd think they would have noticed. So it was a big kerfuffle for us. The Hotel Owner stepped up for us though. Ha! Just kidding...gave us till noon to get out or be charged another night. This while we had to find a vehicle that could tow our trailer which thankfully had not been stolen - only because I had it separately parked.The rooms are okay...but we'll never stay there again.More</t>
   </si>
   <si>
+    <t>Cady A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r551304860-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Danny G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r531168626-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Assata E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r530039255-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>Everything was ok to start yet when I checked out I had been in my vehicle less than 5 min when I called hotel because I left my imported necklace from ENGLAND , I simply asked if the housekeeper before they even got to my room could hold my necklace that I left hanging on the tv APPARENTLY THEY STOLE IT I called about six times given the day I left and on onto the weekend all I got was the run around so THEY STOKE MY NECKLACE SAD THEY WILL NEVER GET MY BUSINESS AGAIN THE STAFF AWFUL AND MANAGERS EVEN WORSE WHICH THEY NEVER GOT BACK TO ME SO WILL STICKTO HILTON More</t>
   </si>
   <si>
+    <t>Daniel A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r505096549-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>texana4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r485207516-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>ppmoke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r464967322-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>Stayed one night with my sister because it was close to airport. Room 127 which was at the end of the hallway next to the exit door. Upon check in they appeared to have trouble finding a room for us although I had booked online and had a confirmation number. We were specifically told that the exit door is kept locked for security and that if we had any problems call the front desk. Seemed odd at the time. Very noisy with lots of hall traffic all night. At 4:30am someone entered our room and turned the light on, then realizing the room was occupied, she left quickly. No, she didn't turn the light off. We had set the deadbolt and the toggle lock, both did not work. We tried to call the front desk from hotel phone but it did not work. Called with cell phone and was told by Ashley that she thought the room was empty and that she was cleaning rooms (at 4:30!). She asked us to stop by the front desk the next morning for compensation. Needless to say we did not go back to sleep. Upon inspection of the locks, the door mounted portion of the toggle lock has been moved just enough to appear that it latches when it doesn't. This was not a mistake as the original drill holes are clear and clean. Not like it had at one time been pulled...Stayed one night with my sister because it was close to airport. Room 127 which was at the end of the hallway next to the exit door. Upon check in they appeared to have trouble finding a room for us although I had booked online and had a confirmation number. We were specifically told that the exit door is kept locked for security and that if we had any problems call the front desk. Seemed odd at the time. Very noisy with lots of hall traffic all night. At 4:30am someone entered our room and turned the light on, then realizing the room was occupied, she left quickly. No, she didn't turn the light off. We had set the deadbolt and the toggle lock, both did not work. We tried to call the front desk from hotel phone but it did not work. Called with cell phone and was told by Ashley that she thought the room was empty and that she was cleaning rooms (at 4:30!). She asked us to stop by the front desk the next morning for compensation. Needless to say we did not go back to sleep. Upon inspection of the locks, the door mounted portion of the toggle lock has been moved just enough to appear that it latches when it doesn't. This was not a mistake as the original drill holes are clear and clean. Not like it had at one time been pulled from the door. The deadbolt was packed so that it could not be completely locked. At check out, Ashley stated she had been looking for extra pillows but could not give an explanation about the locks and was happy to deduct $20 from my bill. I toId her I would have to speak with the general manager. They took my number but I don't expect to be contacted. I have been unable to reach him but my folio has him listed as the person who checked us in. The hotel was clean and looked nice, but is located nearby a "gentleman's" club. Way too much middle of the night traffic to believe she was cleaning rooms or looking for pillows when she entered our room. I will pursue this further to make sure the management is aware of the problem.More</t>
   </si>
   <si>
+    <t>our5boys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r460566472-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>I stayed here based on the recommendation of a local. The hotel was a tremendous value. Location was a little rough but that was the only negative.  The staff was wonderful. My room was large and comfortable.  There are plenty of restaurants nearby. I'd stay there again happily.</t>
   </si>
   <si>
+    <t>Joe d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r440025986-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>legendaryrob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r431663759-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>Overall, it was not bad.I stayed using Points.I specifically reserved the jacuzzi room,on the choice privileges site.(it was an available choice,and I'm a distance bicyclist-I was going to the hockey game,I had brought my bike down on the train, and rode it to/from the nearby station).I was initially issued a room other than the one I reserved, but upon presenting the printout of my reservation,the matter was corrected.I was given permission to bring my vintage racing bike into my room.(which briefly confused the night watchman who hadn't been apprised of the matter.)He was most helpful after learning of it,tho.The television had a good variety of channels,some of the rooms furniture was a little too big for the room itself, but that was mostly because the jacuzzi took up extra floor space.The breakfast could have used some non pork meat products, but the premade omelet thingies were acceptable.The jacuzzi controls were a little confusing at first,but eventually figured out.I was asked for a CC for a loyalty room,(not all choice hotels do this, and those that do,are expected by choice to notate it for the customer on the reservation page-no such notation was noted on my reservation.with that said,all staff was helpful.The neighborhood is old school far north dallas,lots of package stores &amp; "gents clubs"-But I had no issues with patrons of either style of establishment.it is what is is.its a conveniently located reasonably secure hotel with indoor corridors near the...Overall, it was not bad.I stayed using Points.I specifically reserved the jacuzzi room,on the choice privileges site.(it was an available choice,and I'm a distance bicyclist-I was going to the hockey game,I had brought my bike down on the train, and rode it to/from the nearby station).I was initially issued a room other than the one I reserved, but upon presenting the printout of my reservation,the matter was corrected.I was given permission to bring my vintage racing bike into my room.(which briefly confused the night watchman who hadn't been apprised of the matter.)He was most helpful after learning of it,tho.The television had a good variety of channels,some of the rooms furniture was a little too big for the room itself, but that was mostly because the jacuzzi took up extra floor space.The breakfast could have used some non pork meat products, but the premade omelet thingies were acceptable.The jacuzzi controls were a little confusing at first,but eventually figured out.I was asked for a CC for a loyalty room,(not all choice hotels do this, and those that do,are expected by choice to notate it for the customer on the reservation page-no such notation was noted on my reservation.with that said,all staff was helpful.The neighborhood is old school far north dallas,lots of package stores &amp; "gents clubs"-But I had no issues with patrons of either style of establishment.it is what is is.its a conveniently located reasonably secure hotel with indoor corridors near the highway.More</t>
   </si>
   <si>
+    <t>Jalenia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r425730300-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t xml:space="preserve">We stayed here for one night on our way through town. The first room we were put in the air conditioner did not work. The other room we ended up in had a lot of road noise. Sounded like we were staying on a race track. The hotel grounds themselves seemed like a business center that was converted to a hotel. I would stay elsewhere on our return to Dallas. </t>
   </si>
   <si>
+    <t>amylovewell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r414035023-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>I came into Dallas for the weekend with my husband and we chose to get a jacuzzi suite. It was absolutely amazing, the room was very spacious and clean. We did not hear any noise (we had one of the corner rooms on the 4th floor) and it was such a pleasant stay. My husband and I really enjoyed it and the staff was very sweet and helpful. Despite the location of the hotel, I give it 5 stars because the hotel went above and beyond to make our stay warm and welcoming the entire weekend. It was a great home away from home and it definitely exceeded our expectations.More</t>
   </si>
   <si>
+    <t>wow801</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r394940166-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -432,6 +474,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Mark D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r366977294-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Michael T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r353416676-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Nv8200p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r349359309-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>This is the first time I stayed at this property and I was very happy with it. Even though it is next to the Interstate, they is no frontage road in front of it and you have to zigzag on the back roads to get to it. The rooms are large with a sitting area with couch, desk and TV, kitchenette with sink, microwave and fridge, bathroom  and bedroom with another TV. The TV remotes did not work in my first room, so the nice front desk girl promptly switched me to another room where everything was good.  You could hear noise from the highway in the rooms, but it was a gentle hum and not loud enough to keep me awake. Breakfast was more than adequate with a good standard selection of hot and cold items; cereals, waffle iron, pastries, mini-omelettes and bacon (or sausage), a couple of juices, fresh fruit and yogurt. Had to check out a day early, and there was no problem with that. The most annoying thing was the cold drink vending machine on the 2nd floor took my money and did not vend any cold drinks. The machine on the 4th floor worked properly.More</t>
   </si>
   <si>
+    <t>Score G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r348732934-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +558,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Synnojd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r313974230-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -525,6 +582,9 @@
     <t>It looks like a lovely hotel, modern and clean looking. However, we were greeted by an unfriendly girl on reception (evening of Friday, 25th September) with a terrible attitude and there were cockroaches in our room. When I asked the receptionist to call us a taxi, she said she'd give us the number. I asked if she could actually call it herself, she looked like I'd asked her for her first born child. She slowly called a taxi and said it would be 10 minutes. We waited outside for about 25 minutes. When we went back in and said it hadn't arrived, she just slowly shrugged her shoulders with a 'I could not give a steaming sh1t' look. So, we just walked 35 minutes to our restaurant. There was no manager to tell and no point complaining to the receptionist.Next morning on checkout, a different receptionist was very friendly. Aestetically, this is a nice looking hotel. Rooms decorated well and linned clean. They need to sort out the cockroach problem and that receptionist needs some training. More</t>
   </si>
   <si>
+    <t>Joyce Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r310695168-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -543,6 +603,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>B B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r302308104-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -561,6 +624,9 @@
     <t>Upon my arrival at 4:00 PM - they had no clean rooms available and I had to wait an hour for a room. While waiting at the front desk I overheard the manager say that he was ready for a drink and he appeared far more eager to leave - then to assist his staff and the people waiting for rooms.The nightmare began around 9:00 in the evening when the establishment that is immediately to the south of this "motel" began it loud music and and its raucous patrons were yelling and drinking in their parking lot which is right below the window line of this dump - well this noise and behavior went onto well past 3:00 AM and when I approached the young man at the front desk at midnight about this - his attitude was poor and his comment was "Oh yeah, and it gets really loud on the weekends" (it was a Thursday night/Friday morning)  He never offered a solution, an apology nor a move to another room?During my check-out - the young lady behind the desk asked me how my stay was - and I told her it was terrible - at least she apologized and acknowledged that the noise is a problem and has been a problem. My recommendation is to avoid this place at all costs!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>Nate W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r295867960-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -579,6 +645,9 @@
     <t>As soon as I walked into the lobby at 3 pm I was under the assumption that the two workers at the desk wished they were somewhere else and when I did get responded to it was very impersonal and sounded rehearsed. The room was no better as the dreaded Time Warner Cable DTA they had in the room made every channel worth watching pixilated and intermittent, the same goes for the wifi; that had me switching connections nearly every 30 minutes or would flat out be non-existant half the time I needed it. Rest assured, I'm not holding out hope for a pleasant breakfast or a discount because of my disappointment. On top of all that, there is an awful vibration through the whole building that makes sleep very difficult. More</t>
   </si>
   <si>
+    <t>Debasis B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r293517778-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -597,6 +666,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Haley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r277219015-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -612,6 +684,9 @@
     <t xml:space="preserve">We had a GREAT stay here! Breakfast was hot and good. Beds were very comfortable. Workers were very friendly. This would get five stars but when we were walking out to leave we saw a HUGE cockroach crawling on the wall and completely grossed me. BUT if this very clean and nice hotel has them then all the hotel around do. </t>
   </si>
   <si>
+    <t>stott863</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r253258968-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,6 +708,9 @@
     <t>Most of the time you can't go wrong with a Choice Hotel. This place is the exception to that rule. As soon as you see the location of the motel you know you are in trouble. It is right off the interstate, so you  here trucks and sirens all night. If you stay on Thurs - Sat the club beside the motel is going strong till 1-3AM.  Forget getting to sleep during this time.  After the club closes expect people running around the motel for another hour or two. The bottom two floors reek of chlorine. They say they have a breakfast, but all they really have is a room where breakfast is supposed to be served.  Out of the 4 nights I spent here the waffle mix and eggs were available one day.  To say the staff is less than responsive is putting it to positive. I asked to speak to a manger twice. Was told they would call the room, I am still waiting for that call. The room was clean, and bedding comfortable.More</t>
   </si>
   <si>
+    <t>kismet f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r238429790-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -646,6 +724,9 @@
   </si>
   <si>
     <t>It is 5:40 am, it is still dark outside and there are no outside lights on...not even under the canopy! It might have something to do with the remodel but the perimeter lighting should still be on.   The room doors are very heavy, so if you are older or very small in stature, like I am, you will have to use all your might to open them.</t>
+  </si>
+  <si>
+    <t>HipHipHop</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r236562769-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
@@ -705,6 +786,9 @@
 All in all, I would not recommend this hotel during their renovations.  And even after their renovations, I would have some reservations because it doesn't seem like they are investing much into updating the important stuff like rooms and amenities.  And like others have said,...Let's start with the positives...King suite was very spacious.  It had a separate living room and bedroom.Fridge and microwave were availableBed, pillow, sheets, and comforter were comfortable and cleanBreakfast is typical Comfort Inn stuff like scrambled eggs, sausage, waffle. Maintenance came very quickly to address the TV and WIFI connectivity issuesStaff were generally friendly.Negatives:TV cable probably is shared by too many rooms so the picture quality is horribleTV probably dates back to the 80s...tube TV...really?Room 210 has a strong smell of wood, paint, and mold.  Terrible!All the doors slam shuts so do expect to the awaken by doors slamming early in the morningGym and pool were both under renovation so none of those advertised facilities were availableMost other Comfort Inn offers 2 flavors of waffles but this place has only original flavorWhere's the honey?  Again, most other Comfort Inn have packaged honey...not this placeInternet is slow to crawling at times but most of the time it's OK speed. Price was high considering that the workout and pool facilities were not availableThe place feels very dated even with some recent updating.All in all, I would not recommend this hotel during their renovations.  And even after their renovations, I would have some reservations because it doesn't seem like they are investing much into updating the important stuff like rooms and amenities.  And like others have said, it would be nice to notify people of your renovations so people can know what to expect.  I'm not happy that I was not able to workout that night.Tip:   I plugged in my WIFI router to the wall via CAT 5 and that was much much quicker than the hotel routerMore</t>
   </si>
   <si>
+    <t>Mimi1374</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r219841832-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -723,6 +807,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>austinbiker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r216842805-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -747,6 +834,9 @@
     <t>We were disappointed when we checked in because we had reserved the jacuzzi suite and it was not available. I am glad that this property is being updated but it would have been easy to let me know the room I reserved was being remodeled. The pool and hot tub were also being remodeled. The staff was friendly and helpful but if we would have known we probably would have stayed in the La Quinta up the street.More</t>
   </si>
   <si>
+    <t>Kiwiatheart62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r215217630-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -765,6 +855,9 @@
     <t>The photos from the website presented differently from what we got. This is clearly an older hotel, the rooms were in need of update. The tile in the elevator were in need of repair and replacement.  The bathroom floor tiles were unclean.  The swimming pool and hot tub was closed due to repair.  I was aware of it however it would be best to put that clearly on their website.  The beds were comfortable, clean and their were plenty of towels.  The bathroom (toilet, tub) were in good repair.  The bathroom faucet was leaking in room 305.The breakfast consisted of scrambled eggs, bacon, fruit, variety of breads and pastry with the usual cereals.  This was satisfactory.  When we arrived, the front desk clerk wasn't very helpful in providing us with recommendations for dinner nearby.  When asked for change (break a 10 dollar bill) for their vending machine, the female front desk clerk gave my teenaged child a tough time about it.  I'm sure this would be okay as an overnighter however I did feel that their website was deceptive to some degree.More</t>
   </si>
   <si>
+    <t>orutra60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r203536456-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -792,6 +885,9 @@
     <t>The staff was very friendly and helpful. This is an older Hotel and has been refurbished but not bad at all for the price. There are numerous men's clubs in the area, and didn't see or hear any activity that may have filtered from having the "clubs" near by. There is an very clean indoor swimming pool, and there are several restaurants in the vicinity.More</t>
   </si>
   <si>
+    <t>785GregS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r198939379-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -810,6 +906,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Slewis71119</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r198444858-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -828,6 +927,9 @@
     <t>When I arrived, they had me a room next to the elevator, so I asked to be moved, because I hate listening the elevator all night long. So they moved me to another room, which the smell of fresh paint just about overwhelmed me, plus the smoke detector was chirping. So again they moved me to another room. This room the bath faucet would not shut off completely. The motel is right next to a Night Club, the music coming from the club kept me up all night. Around 4 am, after everyone left the night club, I was just about to fall asleep, when the people next door arrived in their room and I had to listen their conversion. By this point, I just decided  to pack up and drive home. On my way out to drop off my keys, I was going speak to the person at the front desk, but she was asleep. I am so glad someone at the motel gets to sleep. With out saying, I wont be back at the motel, I advise you not to either.More</t>
   </si>
   <si>
+    <t>Dale M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r194283514-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -855,6 +957,9 @@
     <t>We had made reservations through choice thinking we had guaranteed reservations. At 830pm we called to make sure letting them know we were still in transit to find out they had given our room away but would give us a different one. With Wyndham we have never experienced that. Thankful they still ha a room since they said their full. Yet we arrive and "somehow" they have our room for us. However the building next to us and parking lot had a party going the entire night to wee hours of the morning. Music loud voices  and freeway traffic. We were on the Fourth floor backside of building.  Though my husband with cold medicine slept through it I didn't.  More</t>
   </si>
   <si>
+    <t>SouthernTravelerGal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r191486832-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -882,6 +987,9 @@
     <t>I should have known, after passing the Gentlemen's Club nearby, that this hotel would be nothing but trashy.  When I walked through the automatic sliding glass doors with my luggage, they actually closed on me.  Then  my sinuses were assaulted by the pungent chlorine smell which burned my nostrils.  After having to wait 15 - 20 minutes to check in, the elevator wait was no better.  I was placed in a room next to the hall being remodeled, a scant ten paces away.  Not only is the hotel outdated and shabby, so are the rooms.  There were holes and cigarette burns on the furniture and bathroom vanity, holes in the drapes, the sink and tub did not drain properly and backed up, the carpet was ragged and the televisions were circa 1980.  The air smelled of musty cigarettes and stale beer.  I was awakened to the sound of hammers, drills and saws which competed with the obnoxiously loud interstate noise outside my window.  I would have been better off at the Bates Motel.More</t>
   </si>
   <si>
+    <t>Mark O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r191483641-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1005,9 @@
     <t>This is a very good value. It is nicely appointed with a friendly and responsive  staff. It is clean and contains a whirlpool, an indoor swimming pool and workout center. All are handicap accessible.  The breakfast is excellent with bacon/sausage, biscuits and sausage gravy, eggs/omelets, waffles, juice, cereal, coffee, bread, bagels, Danish, yoghurt, and fresh fruit.  There are some minor instances of amateur maintenance such as discolored tiles in the elevator and masking tape on the heater/AC, but nothing that is intolerable. The bathroom is clean with an excellent shower head and bath. There is free Wi-Fi.  Parking is free, secure, well-lit and there is a low-profile security officer on duty at night as well as video surveillance. Excellent freeway access to 35E to go downtown Dallas in about 15-20 minutes. There are several restaurants or fast food places such as Denny's and Jack in the Box and others within walking distance. The  walls are not soundproof, but average. The TVs are older, but operational. The stairway carpet from the lobby to 2nd floor needs shampooing. A few negatives are out of control of the management such as: the location is next to a car lot on the north and the freeway on the west. Not much of a view...who cares? Several nightclubs are very close, but  none of this really affected me once inside. I stayed there for 5 days and was very satisfied. To get the best price,...This is a very good value. It is nicely appointed with a friendly and responsive  staff. It is clean and contains a whirlpool, an indoor swimming pool and workout center. All are handicap accessible.  The breakfast is excellent with bacon/sausage, biscuits and sausage gravy, eggs/omelets, waffles, juice, cereal, coffee, bread, bagels, Danish, yoghurt, and fresh fruit.  There are some minor instances of amateur maintenance such as discolored tiles in the elevator and masking tape on the heater/AC, but nothing that is intolerable. The bathroom is clean with an excellent shower head and bath. There is free Wi-Fi.  Parking is free, secure, well-lit and there is a low-profile security officer on duty at night as well as video surveillance. Excellent freeway access to 35E to go downtown Dallas in about 15-20 minutes. There are several restaurants or fast food places such as Denny's and Jack in the Box and others within walking distance. The  walls are not soundproof, but average. The TVs are older, but operational. The stairway carpet from the lobby to 2nd floor needs shampooing. A few negatives are out of control of the management such as: the location is next to a car lot on the north and the freeway on the west. Not much of a view...who cares? Several nightclubs are very close, but  none of this really affected me once inside. I stayed there for 5 days and was very satisfied. To get the best price, book via the internet.More</t>
   </si>
   <si>
+    <t>Lesley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r188326751-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1035,9 @@
     <t>The staff was very friendly and helpful. The room was spacious and clean.  The bed was too firm for our tastes, but the rest of the room was great.  The hot breakfast in the morning was nice and there were a lot of options including Texas-shaped belgian waffles. We were close to everything in the Dallas-Fort Worth area.  It's right off the interstate, too.  Google maps directions will lead you astray if you are coming from the West, but from the East they seemed to work fine.  Overall it was a nice overnight stay.  More</t>
   </si>
   <si>
+    <t>Michael W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r188286619-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1059,9 @@
     <t>Average Comfort Inn.  Good Value for the Price.  I stayed here for four nights while working in the Dallas area.  Rate was around $80.00 per night.  The staff was friendly.  On the first night (Saturday) there was a club or something next door that was playing extremely loud music that you could hear inside the rooms.  This made for a long night.The hotel lobby was clean and comfortable.  The rooms were a bit dated and had average bedding.Breakfast in the morning was above average, and was open and ready before the posted hours.  They did a good job on the warm food side making sure it was fresh.And as previously mentioned - unlimited free cookies all day and night !More</t>
   </si>
   <si>
+    <t>Burt L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r187456083-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1089,9 @@
     <t>Stayed at the Comfort Inn off I-35 off Walnut Hill Dec 9-11.  Took in the Blackhawks/Stars game and stayed here because of it's proximity to DART.  The Walnut Hill/Denton station was a simple mile or so trip from the hotel.  Left out of the hotel, right on Walnut Hill and you're there in no time.  I stayed in a king bed suite, nice bed, couch, fridge and microwave.  All nice.  TV was ok, but a flat screen HDTV would have been better.  WiFi worked, as did the ice machine.  Front desk ladies were very pleasant and helpful.  Got a good deal on the room through the Choice International Hotels website.  All in all, exactly what I had hoped for.  A good room at a fair price close to the DART station.  I recommend the hotel, they have an indoor pool and hot tub and a hot breakfast as well.More</t>
   </si>
   <si>
+    <t>milehigh39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r185308096-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1116,9 @@
     <t>I stayed there nov 18-20 the inside and outside were very cleanThe area was quiet even though there is construction on the interstateWas easily accessibleWill def stay there again as I'm in dalls several times a month More</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r184576898-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1140,9 @@
     <t>This moderately priced hotel has the feel of a much more expensive hotel.  It is super clean, has a unique decor, and the breakfast included bacon and sausage and most important to me, REAL coffee (not the watered-down version at so many hotels recently).  The staff was friendly and helpful.  The only down side is that there aren't many restaurants near the hotel.More</t>
   </si>
   <si>
+    <t>1less</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r182001407-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1167,9 @@
     <t>I stay here often for work. I have tried many hotels around the area and most of the hotels have poor internet service.This hotel has excellent wireless internet. The rooms are always very clean.The hotel has good strong hot water in the restrooms. Breakfast is always good. Usually Tuesday through Thursday evening's they have beer complimentary beer, wine, and snack foods. I will continue to stay here when I come to Dallas. I almost forgot to mention, the rates are very good at this hotel.More</t>
   </si>
   <si>
+    <t>jllantin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r177074231-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1197,9 @@
     <t>This was our first time staying at a Comfort Suites, but the experience was not so good. The sheets had holes.  The room's are outdated, the lobby had a basket because the roof was dripping.  We just stayed one night.  Definitely based on this experience we won't stay again at  Comfort Suites.More</t>
   </si>
   <si>
+    <t>Skorpian82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r174693865-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1215,9 @@
     <t>I've always been a fan of comfort suites but this location was terrible. Everything is old and needs replacing. It's clean but old. The walls are paper thin so I could hear the guy snoring in the room next to me and u could hear little kids running up and down the hallway on the floor above me. Needless to say, my two night reservation turned into a one night stay!</t>
   </si>
   <si>
+    <t>JamesSteffan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r169171410-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1245,9 @@
     <t>The staff was great, and the hotel was clean and neat. The surrounding properties are what hurt this place though, run down buildings everywhere but the neighborhood was quiet. The pool was refreshing however there was no air circulating in the pool room so it felt as if you were in one giant sauna. Breakfast was as expected for the price we paid, but I was full and happy when I left! If you plan on going to any event at the Cowboys Stadium, or The Rangers Ballpark from this location give yourself a good 1.5 - 2 hour travel time, as traffic and construction are outrageous. Now that I'm familiar with the property I will come back.More</t>
   </si>
   <si>
+    <t>showmemo61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r164407962-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1266,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Tamara L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r164106086-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1287,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>magnetman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r159436704-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1308,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Misty S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r158615670-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1329,9 @@
     <t>For simplicity, our trip was arranged via email after being referred by hotels.com which was a big time saver for me. After that, any room adjustments that needed to be done were immediate &amp; without penalty &amp; at a reduced rate due to us being a group. Also, my male &amp; female rooms were kept on separate floors without request (a big advantage when traveling with students). Rooms were clean, breakfast was a nice selection &amp; well prepared, &amp; other amenities were fantastic as well. All of the staff were very helpful &amp; welcoming as well as accepting of a group of 18 high school students. The lobby's stair case is quite pretty as well. Excellent stay! Will definitely book here again!More</t>
   </si>
   <si>
+    <t>BillT733</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r156491334-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1350,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>amarion04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r154912921-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1365,9 @@
     <t>My family and i recently stayed at this hotel. We just stop  back to see if the hotel had an indoor pool. The front desk clerk was very nice and helpful to us she even let us look inside the suite. The suites were nice and roomy. What I liked most was that it had a separate bedroom. The rooms were comfortable clean, and the sleeper sofa was comfortable as well. My family enjoyed the breakfast and the pool. We will most likely stay at this hotel again.</t>
   </si>
   <si>
+    <t>chyrlreasherrill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r154041223-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1383,9 @@
     <t>We checked in early, which was nice of the hotel staff.  Got to the room; it was freezing &amp; the unit would not turn on!  We left for the afternoon and when we returned they had repaired the heater.  Breakfast Room only had 6 tables for a 3 story hotel....definitely not enough to accomodate guests, especially on the weekend.  Overall stay was pleasant enough, but the neighborhood was ghetto.  Not going to choose this one next time.  Comfort Suites is a better choice from a previous Dallas stay.</t>
   </si>
   <si>
+    <t>adri5308</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r153931096-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1401,9 @@
     <t xml:space="preserve">The rooms were very clean, everything worked! Plenty of towels, soft pillows, the most comfortable bed I have ever been on in a hotel, indoor pool and jacuzzi, plus a whirlpool tub in our room. Staff was friendly. Easy to find. Just a few minutes away from Downtown Dallas. </t>
   </si>
   <si>
+    <t>Blueford76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r153681899-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1419,9 @@
     <t>Doors in the room didn't close properly.  Handle came off of the 'bedroom' door a couple times.  TVs need immediate replacement, they are still tubes.  Didn't get to use the pool or hot tub.  There wasn't a lot to do in the immediate area.  I think I'll stay somewhere else next time.  This is nothing like the Comfort Suites in New Braunfels.</t>
   </si>
   <si>
+    <t>Pam G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r150867341-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1443,9 @@
     <t>I was satisfied with this hotel. The room was clean and comfortable. Breakfast was pretty good and filling. It was nice and close to the highway. There is a gentleman's club close by, but we weren't bothered by it. The TV was the old tube, swimming pool water very cold and the whirlpool didn't work :( I specifically looked for an indoor pool due to traveling in January so it made for a boring stay for the kids. We used the fitness room but again the TV is old so while working out it was hard to hear the TV. The free Wi-Fi was also nice to have. Overall for the price I would stay again!More</t>
   </si>
   <si>
+    <t>desiree m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r149834122-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1461,9 @@
     <t>I was very satisfied with the stay and hotel. Breakfast was great, however the receptionist was very rude! (msanti.txa01) The location was convenient for our trip but the construction and traffic was bad. Overall our stay was great!</t>
   </si>
   <si>
+    <t>Blur_78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r148825940-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1482,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>arpwmh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r142247634-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1503,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Shobeone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r142140927-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1521,9 @@
     <t>dont stay here with a family/kids!!! BIG warning!!!! Had to sign a waver if your car gets vandalized its not their fault.  Old inside too.  Pics make this hotel look new and comfortable.Simply misleading info/pics/location.Only stay here if your a man, flying out the next morning.</t>
   </si>
   <si>
+    <t>RunninTheRoads</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r138058030-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1551,9 @@
     <t>While many guests tend to complain about the location of the hotel, I did not have any issues or feel unsafe upon arriving at 12:15 a.m. alone and of the female gender, nor did I experience any troubles upon my departure at 7:00 a.m. the next morning.  In fact, the location never became an issue.  Although a short in and out stay, my entire experience was very good.  The staff was courteous and friendly at all times, and the room was clean and equipped with all the essentials.  I did not partake of the hot breakfast the next morning, but my parents did and seemed to be quite satisfied with the selection and taste of everything.  Not that this is important, but what I was most impressed with was how cool and odor free the hallways seemed to be compared to the way hotel hallways usually are....hot and musty.  I'd definitely recommend this location to another traveler.  TheMore</t>
   </si>
   <si>
+    <t>Amber V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r126209277-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1398,6 +1581,9 @@
     <t>First of all this place is next door to a Gentlemen's club!!! It's in a bad part of Dallas, very scary! One street over and your in china town?! This place NEEDS a makeover!!!! there is only one elevator and it was a MESS and took FOREVER!! The TVs were not flat screens which is not a big deal but the picture wasn't even clear!!!! The service was HORRIBLE! During check in there was a paper on the pool windows stating it was "closed for repairs" but there were people swimming, the attendant Mary Ann told us it was closed but we could swim now. Later that night we asked her what time it closed and she stated it was open 24 hours as long as we were quiet. We went swimming but when we asked for towels Walter told us we couldnt have any because THATS WHY WE ARE NOT SUPPOSED TO BE SWIMMING, like its out fault because its under construction!?!?! Mary Ann told us we could? So we couldnt get towels, even though in our bathroom a sign tells you not to take your towels that some would be provided for you. OVERALL, it was horrible, the beds are not comfortable, it was messy in the hallways, the breakfast had waffles but they kept sticking to the machine because the breakfast attendants came out to spray it with the non stick spray every once in awhile, instead...First of all this place is next door to a Gentlemen's club!!! It's in a bad part of Dallas, very scary! One street over and your in china town?! This place NEEDS a makeover!!!! there is only one elevator and it was a MESS and took FOREVER!! The TVs were not flat screens which is not a big deal but the picture wasn't even clear!!!! The service was HORRIBLE! During check in there was a paper on the pool windows stating it was "closed for repairs" but there were people swimming, the attendant Mary Ann told us it was closed but we could swim now. Later that night we asked her what time it closed and she stated it was open 24 hours as long as we were quiet. We went swimming but when we asked for towels Walter told us we couldnt have any because THATS WHY WE ARE NOT SUPPOSED TO BE SWIMMING, like its out fault because its under construction!?!?! Mary Ann told us we could? So we couldnt get towels, even though in our bathroom a sign tells you not to take your towels that some would be provided for you. OVERALL, it was horrible, the beds are not comfortable, it was messy in the hallways, the breakfast had waffles but they kept sticking to the machine because the breakfast attendants came out to spray it with the non stick spray every once in awhile, instead of leaving it out like the other places. THIS PLACE IS WAY OVERPRICED! the 3rd night we stayed at Baymont Inn and Suites same price, indoor pool and it TOPS this! Same price and it is a FULL UPGRADE, flat screens modern room. GO THERE! I left a great review! This place was a total disappointment :(More</t>
   </si>
   <si>
+    <t>Aprincess365days</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r126062170-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1599,9 @@
     <t>I came in late and everything was comfortable from the front desk to my bed. It was like walking into my home. The only thing I didn't realize was that I got a smoking room until I noticed the ash tray, plus side though, didn't smell like one.  So we stayed. I def recommend.</t>
   </si>
   <si>
+    <t>MotleyMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r123359991-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1629,9 @@
     <t>This motel is relatively small, but it has an indoor pool, exercise room and computer business office.  Fresh cookies are always available and Happy Hour lasts an hour and a half in the late afternoon.  The hot breakfast is well-prepared and varies often.The rooms are small but adequate, the beds comfortable and the staff friendly and responsive.More</t>
   </si>
   <si>
+    <t>hogman111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r117958318-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1647,9 @@
     <t>For the price of 59 a night, it is a great value.  This is my second stay this year. Very quiet on a sunday night. No problems with front desk. Negatives- pool is out of order. Non smoking room has a hint of smoke.</t>
   </si>
   <si>
+    <t>grandmato2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r117806568-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1695,9 @@
     <t>Not bad for the price. Clean and very quiet. Near sam moons and harry hines stores.More</t>
   </si>
   <si>
+    <t>glamourgirlYYC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r67541795-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1714,9 @@
   </si>
   <si>
     <t>June 2010</t>
+  </si>
+  <si>
+    <t>tke_303</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r66343076-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
@@ -1541,6 +1742,9 @@
 Location: When I'm in Dallas, I have to travel to appoinments all over Dallas. Typically from downtown -to- Park Cities -to- Plano -to- Garland -to- etc! I find this location, on the NorthWestern side of Dallas, to be very adequate in terms of it's location to the metroplex as a whole. It's right off the highway @ 35E &amp; Walnut Hill (About 1 Mile South of 35E &amp; 635). I give it top marks in Location. As to the 'strip clubs' noted by a previous trip advisor member... beware, there are multiple strip clubs around this hotel. I usually don't have a problem with this, but then again I stay here as a business man with no family members present. Now, I would say there are NOT "drunken men" hanging around this hotel as previously indicated - that's a bit misleading. In fact, I have typically found this area to be usually quiet with not problems of vagrants or drunkerds hanging around this property. I have never brought...Let me start by saying that if I could give this place 3 1/2 stars I would. It's slightly above 'average', but not quite 'very good'; rather it's a SOLID 'good' rating as I see it. Other reviews below touch on some of the more important issues related to this property. I'll try to expand upon some of the more important factors which I find of greater significance which matter to me.Location: When I'm in Dallas, I have to travel to appoinments all over Dallas. Typically from downtown -to- Park Cities -to- Plano -to- Garland -to- etc! I find this location, on the NorthWestern side of Dallas, to be very adequate in terms of it's location to the metroplex as a whole. It's right off the highway @ 35E &amp; Walnut Hill (About 1 Mile South of 35E &amp; 635). I give it top marks in Location. As to the 'strip clubs' noted by a previous trip advisor member... beware, there are multiple strip clubs around this hotel. I usually don't have a problem with this, but then again I stay here as a business man with no family members present. Now, I would say there are NOT "drunken men" hanging around this hotel as previously indicated - that's a bit misleading. In fact, I have typically found this area to be usually quiet with not problems of vagrants or drunkerds hanging around this property. I have never brought my family (wife &amp; child)  to this hotel, as I'm always here on business - but I don't think I would have a problem doing so if need be. Cleanliness: Your Mileage May Vary... However, I have stayed at this location about 15 times over the past year, and have always had clean, fresh rooms. Typically there is nothing I can complain about in terms of the overall 'cleanliness' of these rooms. HOWEVER, I will say that these rooms are not as modern as some of your more recently built Comfort Inns. So, the decor may seem a little dated to most travelers; especially if you like features like flatscreen TV's in your room or granite counter tops in the bath rooms - don't expect that here, just your basic accomodations a good price (for Dallas hotels).  Some people may construe these 'dated rooms' as not being clean, but I see this as just old age and wear &amp; tear on this slightly older hotel. I will say I have never had 'mold' or insect problems in my rooms, but again... YMMV!Service: Typical chain type hotel staff. Friendly enough, and address minimal issues as needed (i.e. requesting a CAT-5 cable, etc). However, I have never had major problems or concerns when staying here. Nothing that terrible or special in this category - just run of the mill interactions with employees on duty. Rooms: I touched base on this one above. Hotel is a bit 'older'. Probably in the neighborhood of 10-12 years old Decor is a bit dated for my personal taste. No flat  screen TV's, granite counters, fancy linnens or bedding, etc. However, rooms I've stayed in are typically clean and nice... no major issues to cause concern over. Sleep Quality: Just 'ok'. Again, nothing that special, but then again not that bad - just average in this category. I did sleep good. You don't hear the highway next to the hotel, and I've always found the hotel to be very quiet during late night/sleep hours.Value: Very excellent value for a typical Dallas hotel. Rates are pretty on on ChoiceHotels.com, and I've even negotiated reasonal rates without a reservation. Other Features: They have an excellent 'breakfast' and 'happy hour' at this property. They actually make real eggs in the morning, have real sausage or beacon and even tortillas for tacos (I love me sum tacos)! They have complimentary beer (usually Miller light) and wine with finger foods around 6PM (p.s. - beer is as much as you can drink, so bottoms up)! These two features are the reason I keep comming back to this property. This really separates them from their competition as far as I'm concerned - especially for the price. Also, you are literality 5 min from 'restaurant row' at 35E &amp; Northwest Highway - which offers multiple restaurants and bars if you need to head out for the evening. Overall: Great business hotel for the price and location.More</t>
   </si>
   <si>
+    <t>keris1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r61854834-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1559,6 +1763,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>TLBowman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r38596639-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1580,6 +1787,9 @@
     <t>This hotel had some bad reviews, but I took a chance anyways.  Yes, there is a Gentlemans Club on the street, and there is a massage parlor up the street.  You can not fault the hotel for this.  Despite the bad reviews I found that it was probably one of the nicest places I could have stayed on this trip.  Its a very nice property with friendly staff.  The room was clean and fresh.  The bed was a bit hard but I am used to sleeeping on a much softer mattress, so it might be just right for most travelers.  I was quite impressed with the decor, its not the run of the mill Choice Hotels decor.  I found out that it was hand painted by an artist that they brought from Atlanta.  This gives the hotel more of a homey feel.  The lobby has a really pretty sittting area with a nice staircase to the second floor.  The breakfast area is right off that.  The breakfast was fantastic.  They served Migas with refried beans and tortiallas.  Very very good breakfast.  They also had the regular cereals, breads, coffee, juices, ect.  They do offer security for the property.  The parking was well lit and the street fairly quiet.  I would diffentantly stay again.  They have a really pretty King Spa room that has a white poster bed and is done out in French Blue and white.  Might be nice for...This hotel had some bad reviews, but I took a chance anyways.  Yes, there is a Gentlemans Club on the street, and there is a massage parlor up the street.  You can not fault the hotel for this.  Despite the bad reviews I found that it was probably one of the nicest places I could have stayed on this trip.  Its a very nice property with friendly staff.  The room was clean and fresh.  The bed was a bit hard but I am used to sleeeping on a much softer mattress, so it might be just right for most travelers.  I was quite impressed with the decor, its not the run of the mill Choice Hotels decor.  I found out that it was hand painted by an artist that they brought from Atlanta.  This gives the hotel more of a homey feel.  The lobby has a really pretty sittting area with a nice staircase to the second floor.  The breakfast area is right off that.  The breakfast was fantastic.  They served Migas with refried beans and tortiallas.  Very very good breakfast.  They also had the regular cereals, breads, coffee, juices, ect.  They do offer security for the property.  The parking was well lit and the street fairly quiet.  I would diffentantly stay again.  They have a really pretty King Spa room that has a white poster bed and is done out in French Blue and white.  Might be nice for a romantic stay.  There is also an amusement park across the interstate that might be fun for the kdis.More</t>
   </si>
   <si>
+    <t>Smend</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r25100874-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1598,6 +1808,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>lolapeper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r24670165-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1824,9 @@
   </si>
   <si>
     <t>I enjoyed my stay at this hotel.  Im visiting Parker College which is in walking distance from the hotel making it very convenient for travel.  The guy at the front desk was very nice and professional.  The room was reallly nice and clean.  Breakfast  area was very clean and organized.   There were numorous resturants located around the hotel which made dinning easy.  I would definitely come back to this hotel again.</t>
+  </si>
+  <si>
+    <t>Princess618</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d223045-r5837313-Quality_Inn_Suites_I_35_Walnut_Hill-Dallas_Texas.html</t>
@@ -2133,43 +2349,47 @@
       <c r="A2" t="n">
         <v>39525</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>6436</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2187,50 +2407,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39525</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>173940</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2250,50 +2474,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39525</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>173941</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2307,50 +2535,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39525</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>30990</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2370,50 +2602,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39525</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>173942</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2427,50 +2663,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39525</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2484,50 +2724,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39525</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>173943</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2541,50 +2785,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39525</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>173944</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2602,50 +2850,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39525</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>173945</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2659,50 +2911,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39525</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>173946</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2716,50 +2972,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39525</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>173947</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2779,41 +3039,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39525</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>173948</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -2832,50 +3096,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39525</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>173949</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2893,50 +3161,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39525</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173950</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2956,50 +3228,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39525</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>21068</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3019,50 +3295,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39525</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>14469</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3080,50 +3360,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39525</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>173951</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3143,50 +3427,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39525</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>173952</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3200,50 +3488,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39525</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>173953</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3257,50 +3549,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39525</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>173954</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3320,50 +3616,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39525</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>28603</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3383,50 +3683,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39525</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>173955</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3440,50 +3744,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39525</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>173956</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3501,41 +3809,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39525</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>51346</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
@@ -3554,50 +3866,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39525</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>173957</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3617,41 +3933,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39525</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>173958</v>
+      </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
@@ -3678,50 +3998,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39525</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>173959</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="J28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3741,50 +4065,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39525</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>173960</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3802,50 +4130,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39525</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>173961</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3863,56 +4195,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="X30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39525</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>99600</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3930,50 +4266,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39525</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>173962</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3995,56 +4335,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="X32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39525</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>173963</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4068,50 +4412,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39525</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>173964</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4135,50 +4483,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39525</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>8810</v>
+      </c>
+      <c r="C35" t="s">
+        <v>291</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="J35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4190,56 +4542,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="X35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39525</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>173965</v>
+      </c>
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4261,56 +4617,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="Y36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39525</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>20204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4332,56 +4692,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="X37" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="Y37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39525</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>61491</v>
+      </c>
+      <c r="C38" t="s">
+        <v>317</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4393,47 +4757,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="X38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="Y38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39525</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>28515</v>
+      </c>
+      <c r="C39" t="s">
+        <v>327</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="J39" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="L39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
@@ -4450,56 +4818,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="X39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="Y39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39525</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>111725</v>
+      </c>
+      <c r="C40" t="s">
+        <v>335</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="J40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="K40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="O40" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4521,47 +4893,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="X40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Y40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39525</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>173966</v>
+      </c>
+      <c r="C41" t="s">
+        <v>345</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -4588,56 +4964,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="X41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39525</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C42" t="s">
+        <v>354</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4659,56 +5039,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="X42" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="Y42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39525</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>173967</v>
+      </c>
+      <c r="C43" t="s">
+        <v>362</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
         <v>323</v>
       </c>
-      <c r="K43" t="s">
-        <v>324</v>
-      </c>
-      <c r="L43" t="s">
-        <v>325</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>286</v>
-      </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4730,56 +5114,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="X43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="Y43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39525</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>173968</v>
+      </c>
+      <c r="C44" t="s">
+        <v>371</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4801,47 +5189,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="X44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="Y44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39525</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>173969</v>
+      </c>
+      <c r="C45" t="s">
+        <v>381</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="J45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
@@ -4870,50 +5262,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39525</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>173970</v>
+      </c>
+      <c r="C46" t="s">
+        <v>387</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="J46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4935,56 +5331,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="X46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="Y46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39525</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>173971</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="K47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="O47" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5008,50 +5408,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39525</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>65846</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5075,50 +5479,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39525</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>173972</v>
+      </c>
+      <c r="C49" t="s">
+        <v>411</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="J49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="K49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5142,50 +5550,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39525</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>7757</v>
+      </c>
+      <c r="C50" t="s">
+        <v>418</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="J50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="K50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="L50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5209,50 +5621,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39525</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>173973</v>
+      </c>
+      <c r="C51" t="s">
+        <v>425</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="J51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="K51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="L51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5276,50 +5692,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39525</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>173974</v>
+      </c>
+      <c r="C52" t="s">
+        <v>432</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="K52" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5343,50 +5763,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39525</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>173975</v>
+      </c>
+      <c r="C53" t="s">
+        <v>437</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="J53" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5410,41 +5834,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39525</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>173976</v>
+      </c>
+      <c r="C54" t="s">
+        <v>443</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="K54" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5473,41 +5901,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39525</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>173977</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="J55" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="K55" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -5536,50 +5968,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39525</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>23317</v>
+      </c>
+      <c r="C56" t="s">
+        <v>455</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="J56" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="K56" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="L56" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5603,50 +6039,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39525</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>173978</v>
+      </c>
+      <c r="C57" t="s">
+        <v>463</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="J57" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="K57" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="L57" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5670,50 +6110,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39525</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>173979</v>
+      </c>
+      <c r="C58" t="s">
+        <v>469</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="J58" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="L58" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5737,50 +6181,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39525</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>173980</v>
+      </c>
+      <c r="C59" t="s">
+        <v>476</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="J59" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="K59" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="L59" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5804,50 +6252,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39525</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>173981</v>
+      </c>
+      <c r="C60" t="s">
+        <v>483</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="J60" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="K60" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="L60" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="O60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5871,50 +6323,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39525</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>173982</v>
+      </c>
+      <c r="C61" t="s">
+        <v>489</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="J61" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="K61" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="L61" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5936,56 +6392,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="X61" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="Y61" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39525</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>49861</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="J62" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="K62" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="L62" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="O62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6007,47 +6467,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="X62" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="Y62" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39525</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>173983</v>
+      </c>
+      <c r="C63" t="s">
+        <v>509</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="J63" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="K63" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6076,50 +6540,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39525</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>173984</v>
+      </c>
+      <c r="C64" t="s">
+        <v>515</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="J64" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="K64" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="L64" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6141,47 +6609,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="X64" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="Y64" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39525</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>173985</v>
+      </c>
+      <c r="C65" t="s">
+        <v>525</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="J65" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="K65" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="L65" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -6210,50 +6682,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39525</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>173986</v>
+      </c>
+      <c r="C66" t="s">
+        <v>531</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="J66" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="K66" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="L66" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="O66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6273,41 +6749,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39525</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>173984</v>
+      </c>
+      <c r="C67" t="s">
+        <v>525</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="J67" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="K67" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="L67" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -6334,56 +6814,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="X67" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="Y67" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39525</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>173987</v>
+      </c>
+      <c r="C68" t="s">
+        <v>547</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="J68" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="K68" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="L68" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="O68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6407,50 +6891,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39525</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>173988</v>
+      </c>
+      <c r="C69" t="s">
+        <v>554</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="J69" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="K69" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="L69" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6474,50 +6962,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39525</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>173989</v>
+      </c>
+      <c r="C70" t="s">
+        <v>562</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="J70" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="K70" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="L70" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="O70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6541,50 +7033,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39525</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>173990</v>
+      </c>
+      <c r="C71" t="s">
+        <v>569</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="J71" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="K71" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="L71" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6608,50 +7104,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39525</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>173991</v>
+      </c>
+      <c r="C72" t="s">
+        <v>577</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="J72" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K72" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="L72" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6675,50 +7175,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39525</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>173992</v>
+      </c>
+      <c r="C73" t="s">
+        <v>584</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="J73" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="K73" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="L73" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="O73" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6742,50 +7246,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39525</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>173993</v>
+      </c>
+      <c r="C74" t="s">
+        <v>590</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="J74" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="K74" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="L74" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -6809,7 +7317,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
